--- a/INTLINE/data/142/STANOR/old/07095 Index of production by Industry.xlsx
+++ b/INTLINE/data/142/STANOR/old/07095 Index of production by Industry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
   <x:si>
     <x:t>07095: Index of production (2005=100), by industry/main industrial grouping, contents and month</x:t>
   </x:si>
@@ -985,6 +985,15 @@
     <x:t>2021M10</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
     <x:t>Extraction of crude petroleum</x:t>
   </x:si>
   <x:si>
@@ -1063,16 +1072,25 @@
     <x:t>The weights are value added at factor prices. The levels of aggregations refer to the Standard Industrial Classification SIC 2007.</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Because of calculation errors for mining and quarrying for all months in 2021,  figures for mining and quarrying and overlying aggregates have been corrected 10th February 2022. 
+Following aggregates have been affected by this change:
+&lt;li&gt;Extraction, mining, manufacturing and electricity&lt;/li&gt; 
+&lt;li&gt;Manufacturing, mining and quarrying&lt;/li&gt; 
+&lt;li&gt;Mining and quarrying&lt;/li&gt; 
+&lt;li&gt;Intermediate goods&lt;/li&gt; 
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>. = Category not applicable. Figures do not exist at this time, because the category was not in use when the figures were collected.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Index of production. Seasonally adjusted:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211207 08:00</x:t>
+    <x:t>20220307 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Index of production. Calendar adjusted:</x:t>
@@ -1535,23 +1553,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:LL136"/>
+  <x:dimension ref="A1:LO137"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="37.300625" style="0" customWidth="1"/>
-    <x:col min="3" max="324" width="10.040625" style="0" customWidth="1"/>
+    <x:col min="1" max="327" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:324">
+    <x:row r="1" spans="1:327">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:324">
+    <x:row r="3" spans="1:327">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2518,13 +2534,22 @@
       <x:c r="LL3" s="2" t="s">
         <x:v>322</x:v>
       </x:c>
+      <x:c r="LM3" s="2" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="LN3" s="2" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="LO3" s="2" t="s">
+        <x:v>325</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:324">
+    <x:row r="4" spans="1:327">
       <x:c r="A4" s="2" t="s">
-        <x:v>323</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>114.6</x:v>
@@ -3394,7 +3419,7 @@
         <x:v>45.7</x:v>
       </x:c>
       <x:c r="KF4" s="3" t="n">
-        <x:v>43.8</x:v>
+        <x:v>44.1</x:v>
       </x:c>
       <x:c r="KG4" s="3" t="n">
         <x:v>44.5</x:v>
@@ -3406,7 +3431,7 @@
         <x:v>43.2</x:v>
       </x:c>
       <x:c r="KJ4" s="3" t="n">
-        <x:v>36.7</x:v>
+        <x:v>36.6</x:v>
       </x:c>
       <x:c r="KK4" s="3" t="n">
         <x:v>44.4</x:v>
@@ -3418,58 +3443,58 @@
         <x:v>47.6</x:v>
       </x:c>
       <x:c r="KN4" s="3" t="n">
-        <x:v>49.2</x:v>
+        <x:v>49.1</x:v>
       </x:c>
       <x:c r="KO4" s="3" t="n">
-        <x:v>52.6</x:v>
+        <x:v>52.5</x:v>
       </x:c>
       <x:c r="KP4" s="3" t="n">
-        <x:v>54.2</x:v>
+        <x:v>54.1</x:v>
       </x:c>
       <x:c r="KQ4" s="3" t="n">
         <x:v>53.4</x:v>
       </x:c>
       <x:c r="KR4" s="3" t="n">
-        <x:v>56.7</x:v>
+        <x:v>57.3</x:v>
       </x:c>
       <x:c r="KS4" s="3" t="n">
-        <x:v>56.9</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="KT4" s="3" t="n">
         <x:v>60</x:v>
       </x:c>
       <x:c r="KU4" s="3" t="n">
-        <x:v>62.9</x:v>
+        <x:v>62.8</x:v>
       </x:c>
       <x:c r="KV4" s="3" t="n">
-        <x:v>55.9</x:v>
+        <x:v>55.8</x:v>
       </x:c>
       <x:c r="KW4" s="3" t="n">
-        <x:v>59.6</x:v>
+        <x:v>59.5</x:v>
       </x:c>
       <x:c r="KX4" s="3" t="n">
-        <x:v>60.8</x:v>
+        <x:v>60.7</x:v>
       </x:c>
       <x:c r="KY4" s="3" t="n">
-        <x:v>56.6</x:v>
+        <x:v>56.4</x:v>
       </x:c>
       <x:c r="KZ4" s="3" t="n">
-        <x:v>54.8</x:v>
+        <x:v>54.7</x:v>
       </x:c>
       <x:c r="LA4" s="3" t="n">
-        <x:v>56.5</x:v>
+        <x:v>56.3</x:v>
       </x:c>
       <x:c r="LB4" s="3" t="n">
-        <x:v>58</x:v>
+        <x:v>57.9</x:v>
       </x:c>
       <x:c r="LC4" s="3" t="n">
         <x:v>57.9</x:v>
       </x:c>
       <x:c r="LD4" s="3" t="n">
-        <x:v>58</x:v>
+        <x:v>58.6</x:v>
       </x:c>
       <x:c r="LE4" s="3" t="n">
-        <x:v>58.8</x:v>
+        <x:v>58.9</x:v>
       </x:c>
       <x:c r="LF4" s="3" t="n">
         <x:v>57.7</x:v>
@@ -3487,15 +3512,24 @@
         <x:v>64.1</x:v>
       </x:c>
       <x:c r="LK4" s="3" t="n">
-        <x:v>67.9</x:v>
+        <x:v>67.8</x:v>
       </x:c>
       <x:c r="LL4" s="3" t="n">
-        <x:v>61.3</x:v>
+        <x:v>61.2</x:v>
+      </x:c>
+      <x:c r="LM4" s="3" t="n">
+        <x:v>55.9</x:v>
+      </x:c>
+      <x:c r="LN4" s="3" t="n">
+        <x:v>58.6</x:v>
+      </x:c>
+      <x:c r="LO4" s="3" t="n">
+        <x:v>55.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:324">
+    <x:row r="5" spans="1:327">
       <x:c r="B5" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>119</x:v>
@@ -4463,10 +4497,19 @@
       <x:c r="LL5" s="3" t="n">
         <x:v>62.8</x:v>
       </x:c>
+      <x:c r="LM5" s="3" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="LN5" s="3" t="n">
+        <x:v>63.9</x:v>
+      </x:c>
+      <x:c r="LO5" s="3" t="n">
+        <x:v>59.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:324">
+    <x:row r="6" spans="1:327">
       <x:c r="B6" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>118.9</x:v>
@@ -5434,13 +5477,22 @@
       <x:c r="LL6" s="3" t="n">
         <x:v>62.8</x:v>
       </x:c>
+      <x:c r="LM6" s="3" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="LN6" s="3" t="n">
+        <x:v>63.9</x:v>
+      </x:c>
+      <x:c r="LO6" s="3" t="n">
+        <x:v>59.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:324">
+    <x:row r="7" spans="1:327">
       <x:c r="A7" s="2" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>327</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>324</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>43</x:v>
@@ -6316,16 +6368,16 @@
         <x:v>104.8</x:v>
       </x:c>
       <x:c r="KH7" s="3" t="n">
-        <x:v>106.5</x:v>
+        <x:v>106.6</x:v>
       </x:c>
       <x:c r="KI7" s="3" t="n">
-        <x:v>106.2</x:v>
+        <x:v>106.4</x:v>
       </x:c>
       <x:c r="KJ7" s="3" t="n">
-        <x:v>114.9</x:v>
+        <x:v>115.1</x:v>
       </x:c>
       <x:c r="KK7" s="3" t="n">
-        <x:v>101</x:v>
+        <x:v>101.1</x:v>
       </x:c>
       <x:c r="KL7" s="3" t="n">
         <x:v>94.9</x:v>
@@ -6334,34 +6386,34 @@
         <x:v>76.4</x:v>
       </x:c>
       <x:c r="KN7" s="3" t="n">
-        <x:v>94.7</x:v>
+        <x:v>94.3</x:v>
       </x:c>
       <x:c r="KO7" s="3" t="n">
         <x:v>99.1</x:v>
       </x:c>
       <x:c r="KP7" s="3" t="n">
-        <x:v>100.9</x:v>
+        <x:v>100.8</x:v>
       </x:c>
       <x:c r="KQ7" s="3" t="n">
         <x:v>98.7</x:v>
       </x:c>
       <x:c r="KR7" s="3" t="n">
-        <x:v>99.9</x:v>
+        <x:v>99.8</x:v>
       </x:c>
       <x:c r="KS7" s="3" t="n">
         <x:v>104.3</x:v>
       </x:c>
       <x:c r="KT7" s="3" t="n">
-        <x:v>97.2</x:v>
+        <x:v>97.3</x:v>
       </x:c>
       <x:c r="KU7" s="3" t="n">
-        <x:v>91.4</x:v>
+        <x:v>91.6</x:v>
       </x:c>
       <x:c r="KV7" s="3" t="n">
-        <x:v>100.2</x:v>
+        <x:v>100.5</x:v>
       </x:c>
       <x:c r="KW7" s="3" t="n">
-        <x:v>100.6</x:v>
+        <x:v>100.8</x:v>
       </x:c>
       <x:c r="KX7" s="3" t="n">
         <x:v>104.5</x:v>
@@ -6370,16 +6422,16 @@
         <x:v>101.8</x:v>
       </x:c>
       <x:c r="KZ7" s="3" t="n">
-        <x:v>90</x:v>
+        <x:v>89.5</x:v>
       </x:c>
       <x:c r="LA7" s="3" t="n">
-        <x:v>95.6</x:v>
+        <x:v>95.5</x:v>
       </x:c>
       <x:c r="LB7" s="3" t="n">
-        <x:v>97.1</x:v>
+        <x:v>96.9</x:v>
       </x:c>
       <x:c r="LC7" s="3" t="n">
-        <x:v>95.8</x:v>
+        <x:v>95.9</x:v>
       </x:c>
       <x:c r="LD7" s="3" t="n">
         <x:v>93.4</x:v>
@@ -6388,30 +6440,39 @@
         <x:v>95.3</x:v>
       </x:c>
       <x:c r="LF7" s="3" t="n">
-        <x:v>96.2</x:v>
+        <x:v>96.4</x:v>
       </x:c>
       <x:c r="LG7" s="3" t="n">
-        <x:v>91.5</x:v>
+        <x:v>91.7</x:v>
       </x:c>
       <x:c r="LH7" s="3" t="n">
-        <x:v>87.6</x:v>
+        <x:v>87.9</x:v>
       </x:c>
       <x:c r="LI7" s="3" t="n">
-        <x:v>99.2</x:v>
+        <x:v>99.5</x:v>
       </x:c>
       <x:c r="LJ7" s="3" t="n">
-        <x:v>108.1</x:v>
+        <x:v>108.2</x:v>
       </x:c>
       <x:c r="LK7" s="3" t="n">
-        <x:v>105.5</x:v>
+        <x:v>105.6</x:v>
       </x:c>
       <x:c r="LL7" s="3" t="n">
-        <x:v>103.6</x:v>
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="LM7" s="3" t="n">
+        <x:v>97.2</x:v>
+      </x:c>
+      <x:c r="LN7" s="3" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="LO7" s="3" t="n">
+        <x:v>96.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:324">
+    <x:row r="8" spans="1:327">
       <x:c r="B8" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>45.2</x:v>
@@ -7379,10 +7440,19 @@
       <x:c r="LL8" s="3" t="n">
         <x:v>105.8</x:v>
       </x:c>
+      <x:c r="LM8" s="3" t="n">
+        <x:v>101.7</x:v>
+      </x:c>
+      <x:c r="LN8" s="3" t="n">
+        <x:v>110.4</x:v>
+      </x:c>
+      <x:c r="LO8" s="3" t="n">
+        <x:v>107.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:324">
+    <x:row r="9" spans="1:327">
       <x:c r="B9" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>44.8</x:v>
@@ -8350,553 +8420,562 @@
       <x:c r="LL9" s="3" t="n">
         <x:v>105.8</x:v>
       </x:c>
+      <x:c r="LM9" s="3" t="n">
+        <x:v>101.7</x:v>
+      </x:c>
+      <x:c r="LN9" s="3" t="n">
+        <x:v>110.4</x:v>
+      </x:c>
+      <x:c r="LO9" s="3" t="n">
+        <x:v>107.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:324">
+    <x:row r="10" spans="1:327">
       <x:c r="A10" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="E10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="I10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="J10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="K10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="L10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="M10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="N10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="O10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="P10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="Q10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="R10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="S10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="T10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="U10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="V10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="W10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="X10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="Y10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="Z10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AA10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AB10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AC10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AD10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AE10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AF10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AG10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AH10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AI10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AJ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AK10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AL10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AM10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AN10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AO10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AP10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AQ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AR10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AS10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AT10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AU10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AV10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AW10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AX10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AY10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AZ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BA10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BB10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BC10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BD10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BE10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BF10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BG10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BH10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BI10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BJ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BK10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BL10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BM10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BN10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BO10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BP10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BQ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BR10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BS10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BT10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BU10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BV10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BW10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BX10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BY10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BZ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CA10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CB10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CC10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CD10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CE10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CF10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CG10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CH10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CI10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CJ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CK10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CL10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CM10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CN10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CO10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CP10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CQ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CR10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CS10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CT10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CU10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CV10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CW10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CX10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CY10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CZ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DA10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DB10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DC10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DD10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DE10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DF10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DG10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DH10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DI10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DJ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DK10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DL10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DM10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DN10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DO10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DP10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DQ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DR10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DS10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DT10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DU10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DV10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DW10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DX10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DY10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DZ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EA10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EB10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EC10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ED10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EE10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EF10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EG10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EH10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EI10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EJ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EK10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EL10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EM10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EN10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EO10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EP10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EQ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ER10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ES10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ET10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EU10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EV10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EW10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EX10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EY10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EZ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FA10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FB10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FC10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FD10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FE10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FF10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FG10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FH10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FI10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FJ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FK10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FL10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FM10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FN10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FO10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FP10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FQ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FR10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FS10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FT10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FU10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FV10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FW10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FX10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FY10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FZ10" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="GA10" s="3" t="n">
         <x:v>134.1</x:v>
@@ -9256,7 +9335,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="KP10" s="3" t="n">
-        <x:v>155.3</x:v>
+        <x:v>155.2</x:v>
       </x:c>
       <x:c r="KQ10" s="3" t="n">
         <x:v>156.9</x:v>
@@ -9274,7 +9353,7 @@
         <x:v>129.2</x:v>
       </x:c>
       <x:c r="KV10" s="3" t="n">
-        <x:v>133.4</x:v>
+        <x:v>133.3</x:v>
       </x:c>
       <x:c r="KW10" s="3" t="n">
         <x:v>133.3</x:v>
@@ -9286,10 +9365,10 @@
         <x:v>142.8</x:v>
       </x:c>
       <x:c r="KZ10" s="3" t="n">
-        <x:v>142.5</x:v>
+        <x:v>142.6</x:v>
       </x:c>
       <x:c r="LA10" s="3" t="n">
-        <x:v>143.5</x:v>
+        <x:v>143.4</x:v>
       </x:c>
       <x:c r="LB10" s="3" t="n">
         <x:v>149.2</x:v>
@@ -9298,7 +9377,7 @@
         <x:v>145.8</x:v>
       </x:c>
       <x:c r="LD10" s="3" t="n">
-        <x:v>148.9</x:v>
+        <x:v>148.8</x:v>
       </x:c>
       <x:c r="LE10" s="3" t="n">
         <x:v>152.3</x:v>
@@ -9322,552 +9401,561 @@
         <x:v>150.6</x:v>
       </x:c>
       <x:c r="LL10" s="3" t="n">
-        <x:v>144.2</x:v>
+        <x:v>144.3</x:v>
+      </x:c>
+      <x:c r="LM10" s="3" t="n">
+        <x:v>151.7</x:v>
+      </x:c>
+      <x:c r="LN10" s="3" t="n">
+        <x:v>157.5</x:v>
+      </x:c>
+      <x:c r="LO10" s="3" t="n">
+        <x:v>155.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:324">
+    <x:row r="11" spans="1:327">
       <x:c r="B11" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="E11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="J11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="K11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="L11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="M11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="N11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="O11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="P11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="Q11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="R11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="S11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="T11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="U11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="V11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="W11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="X11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="Y11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="Z11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AA11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AB11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AC11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AD11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AE11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AF11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AG11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AH11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AI11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AJ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AK11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AL11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AM11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AN11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AO11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AP11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AQ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AR11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AS11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AT11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AU11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AV11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AW11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AX11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AY11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AZ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BA11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BB11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BC11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BD11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BE11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BF11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BG11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BH11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BI11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BJ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BK11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BL11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BM11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BN11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BO11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BP11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BQ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BR11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BS11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BT11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BU11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BV11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BW11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BX11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BY11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BZ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CA11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CB11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CC11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CD11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CE11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CF11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CG11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CH11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CI11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CJ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CK11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CL11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CM11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CN11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CO11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CP11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CQ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CR11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CS11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CT11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CU11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CV11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CW11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CX11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CY11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CZ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DA11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DB11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DC11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DD11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DE11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DF11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DG11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DH11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DI11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DJ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DK11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DL11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DM11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DN11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DO11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DP11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DQ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DR11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DS11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DT11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DU11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DV11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DW11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DX11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DY11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DZ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EA11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EB11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EC11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ED11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EE11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EF11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EG11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EH11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EI11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EJ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EK11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EL11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EM11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EN11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EO11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EP11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EQ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ER11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ES11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ET11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EU11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EV11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EW11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EX11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EY11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EZ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FA11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FB11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FC11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FD11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FE11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FF11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FG11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FH11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FI11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FJ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FK11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FL11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FM11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FN11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FO11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FP11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FQ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FR11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FS11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FT11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FU11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FV11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FW11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FX11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FY11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FZ11" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="GA11" s="3" t="n">
         <x:v>132.1</x:v>
@@ -10295,550 +10383,559 @@
       <x:c r="LL11" s="3" t="n">
         <x:v>153.7</x:v>
       </x:c>
+      <x:c r="LM11" s="3" t="n">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="LN11" s="3" t="n">
+        <x:v>146.2</x:v>
+      </x:c>
+      <x:c r="LO11" s="3" t="n">
+        <x:v>152.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:324">
+    <x:row r="12" spans="1:327">
       <x:c r="B12" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="I12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="J12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="K12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="L12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="M12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="N12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="O12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="P12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="Q12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="R12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="S12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="T12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="U12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="V12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="W12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="X12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="Y12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="Z12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AA12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AB12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AC12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AD12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AE12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AF12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AG12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AH12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AI12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AJ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AK12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AL12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AM12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AN12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AO12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AP12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AQ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AR12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AS12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AT12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AU12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AV12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AW12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AX12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AY12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AZ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BA12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BB12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BC12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BD12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BE12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BF12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BG12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BH12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BI12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BJ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BK12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BL12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BM12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BN12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BO12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BP12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BQ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BR12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BS12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BT12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BU12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BV12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BW12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BX12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BY12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="BZ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CA12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CB12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CC12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CD12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CE12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CF12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CG12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CH12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CI12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CJ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CK12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CL12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CM12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CN12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CO12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CP12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CQ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CR12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CS12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CT12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CU12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CV12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CW12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CX12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CY12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="CZ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DA12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DB12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DC12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DD12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DE12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DF12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DG12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DH12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DI12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DJ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DK12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DL12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DM12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DN12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DO12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DP12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DQ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DR12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DS12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DT12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DU12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DV12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DW12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DX12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DY12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="DZ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EA12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EB12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EC12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ED12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EE12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EF12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EG12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EH12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EI12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EJ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EK12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EL12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EM12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EN12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EO12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EP12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EQ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ER12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ES12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="ET12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EU12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EV12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EW12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EX12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EY12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="EZ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FA12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FB12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FC12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FD12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FE12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FF12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FG12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FH12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FI12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FJ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FK12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FL12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FM12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FN12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FO12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FP12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FQ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FR12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FS12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FT12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FU12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FV12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FW12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FX12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FY12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="FZ12" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="GA12" s="3" t="n">
         <x:v>132.1</x:v>
@@ -11266,13 +11363,22 @@
       <x:c r="LL12" s="3" t="n">
         <x:v>153.7</x:v>
       </x:c>
+      <x:c r="LM12" s="3" t="n">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="LN12" s="3" t="n">
+        <x:v>146.2</x:v>
+      </x:c>
+      <x:c r="LO12" s="3" t="n">
+        <x:v>152.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:324">
+    <x:row r="13" spans="1:327">
       <x:c r="A13" s="2" t="s">
-        <x:v>330</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>113</x:v>
@@ -12193,7 +12299,7 @@
         <x:v>104.5</x:v>
       </x:c>
       <x:c r="KW13" s="3" t="n">
-        <x:v>110.7</x:v>
+        <x:v>110.8</x:v>
       </x:c>
       <x:c r="KX13" s="3" t="n">
         <x:v>107.5</x:v>
@@ -12211,7 +12317,7 @@
         <x:v>110.4</x:v>
       </x:c>
       <x:c r="LC13" s="3" t="n">
-        <x:v>115.2</x:v>
+        <x:v>115.3</x:v>
       </x:c>
       <x:c r="LD13" s="3" t="n">
         <x:v>113.2</x:v>
@@ -12220,7 +12326,7 @@
         <x:v>113.9</x:v>
       </x:c>
       <x:c r="LF13" s="3" t="n">
-        <x:v>114.2</x:v>
+        <x:v>114.3</x:v>
       </x:c>
       <x:c r="LG13" s="3" t="n">
         <x:v>111.1</x:v>
@@ -12238,12 +12344,21 @@
         <x:v>115.9</x:v>
       </x:c>
       <x:c r="LL13" s="3" t="n">
-        <x:v>106.9</x:v>
+        <x:v>106.8</x:v>
+      </x:c>
+      <x:c r="LM13" s="3" t="n">
+        <x:v>107.2</x:v>
+      </x:c>
+      <x:c r="LN13" s="3" t="n">
+        <x:v>106.8</x:v>
+      </x:c>
+      <x:c r="LO13" s="3" t="n">
+        <x:v>108.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:324">
+    <x:row r="14" spans="1:327">
       <x:c r="B14" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>103.4</x:v>
@@ -13116,13 +13231,13 @@
         <x:v>96.4</x:v>
       </x:c>
       <x:c r="KG14" s="3" t="n">
-        <x:v>102.2</x:v>
+        <x:v>102.3</x:v>
       </x:c>
       <x:c r="KH14" s="3" t="n">
         <x:v>97.6</x:v>
       </x:c>
       <x:c r="KI14" s="3" t="n">
-        <x:v>101.5</x:v>
+        <x:v>101.6</x:v>
       </x:c>
       <x:c r="KJ14" s="3" t="n">
         <x:v>104.7</x:v>
@@ -13152,7 +13267,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="KS14" s="3" t="n">
-        <x:v>108</x:v>
+        <x:v>108.1</x:v>
       </x:c>
       <x:c r="KT14" s="3" t="n">
         <x:v>99.8</x:v>
@@ -13188,13 +13303,13 @@
         <x:v>103.9</x:v>
       </x:c>
       <x:c r="LE14" s="3" t="n">
-        <x:v>113.7</x:v>
+        <x:v>113.8</x:v>
       </x:c>
       <x:c r="LF14" s="3" t="n">
-        <x:v>106.7</x:v>
+        <x:v>106.6</x:v>
       </x:c>
       <x:c r="LG14" s="3" t="n">
-        <x:v>107.5</x:v>
+        <x:v>107.6</x:v>
       </x:c>
       <x:c r="LH14" s="3" t="n">
         <x:v>111.7</x:v>
@@ -13211,10 +13326,19 @@
       <x:c r="LL14" s="3" t="n">
         <x:v>122.8</x:v>
       </x:c>
+      <x:c r="LM14" s="3" t="n">
+        <x:v>116.4</x:v>
+      </x:c>
+      <x:c r="LN14" s="3" t="n">
+        <x:v>103.3</x:v>
+      </x:c>
+      <x:c r="LO14" s="3" t="n">
+        <x:v>104.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="15" spans="1:324">
+    <x:row r="15" spans="1:327">
       <x:c r="B15" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>102.5</x:v>
@@ -14182,13 +14306,22 @@
       <x:c r="LL15" s="3" t="n">
         <x:v>118.3</x:v>
       </x:c>
+      <x:c r="LM15" s="3" t="n">
+        <x:v>118.6</x:v>
+      </x:c>
+      <x:c r="LN15" s="3" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="LO15" s="3" t="n">
+        <x:v>100.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="16" spans="1:324">
+    <x:row r="16" spans="1:327">
       <x:c r="A16" s="2" t="s">
-        <x:v>331</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>115.3</x:v>
@@ -15127,7 +15260,7 @@
         <x:v>115.7</x:v>
       </x:c>
       <x:c r="LC16" s="3" t="n">
-        <x:v>120.7</x:v>
+        <x:v>120.8</x:v>
       </x:c>
       <x:c r="LD16" s="3" t="n">
         <x:v>118.6</x:v>
@@ -15156,10 +15289,19 @@
       <x:c r="LL16" s="3" t="n">
         <x:v>112.2</x:v>
       </x:c>
+      <x:c r="LM16" s="3" t="n">
+        <x:v>112.1</x:v>
+      </x:c>
+      <x:c r="LN16" s="3" t="n">
+        <x:v>111.9</x:v>
+      </x:c>
+      <x:c r="LO16" s="3" t="n">
+        <x:v>112.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:324">
+    <x:row r="17" spans="1:327">
       <x:c r="B17" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>107.1</x:v>
@@ -16035,7 +16177,7 @@
         <x:v>105.7</x:v>
       </x:c>
       <x:c r="KH17" s="3" t="n">
-        <x:v>102.8</x:v>
+        <x:v>102.7</x:v>
       </x:c>
       <x:c r="KI17" s="3" t="n">
         <x:v>105.9</x:v>
@@ -16068,10 +16210,10 @@
         <x:v>100.7</x:v>
       </x:c>
       <x:c r="KS17" s="3" t="n">
-        <x:v>112.7</x:v>
+        <x:v>112.8</x:v>
       </x:c>
       <x:c r="KT17" s="3" t="n">
-        <x:v>105.7</x:v>
+        <x:v>105.6</x:v>
       </x:c>
       <x:c r="KU17" s="3" t="n">
         <x:v>106.9</x:v>
@@ -16104,10 +16246,10 @@
         <x:v>109.6</x:v>
       </x:c>
       <x:c r="LE17" s="3" t="n">
-        <x:v>119.3</x:v>
+        <x:v>119.4</x:v>
       </x:c>
       <x:c r="LF17" s="3" t="n">
-        <x:v>112.1</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="LG17" s="3" t="n">
         <x:v>111.8</x:v>
@@ -16127,10 +16269,19 @@
       <x:c r="LL17" s="3" t="n">
         <x:v>129.7</x:v>
       </x:c>
+      <x:c r="LM17" s="3" t="n">
+        <x:v>122.2</x:v>
+      </x:c>
+      <x:c r="LN17" s="3" t="n">
+        <x:v>109.1</x:v>
+      </x:c>
+      <x:c r="LO17" s="3" t="n">
+        <x:v>109.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="18" spans="1:324">
+    <x:row r="18" spans="1:327">
       <x:c r="B18" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>106.3</x:v>
@@ -17098,13 +17249,22 @@
       <x:c r="LL18" s="3" t="n">
         <x:v>125.3</x:v>
       </x:c>
+      <x:c r="LM18" s="3" t="n">
+        <x:v>124.3</x:v>
+      </x:c>
+      <x:c r="LN18" s="3" t="n">
+        <x:v>107.3</x:v>
+      </x:c>
+      <x:c r="LO18" s="3" t="n">
+        <x:v>105.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="19" spans="1:324">
+    <x:row r="19" spans="1:327">
       <x:c r="A19" s="2" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>194.4</x:v>
@@ -17998,7 +18158,7 @@
         <x:v>80.8</x:v>
       </x:c>
       <x:c r="KN19" s="3" t="n">
-        <x:v>76.5</x:v>
+        <x:v>76.6</x:v>
       </x:c>
       <x:c r="KO19" s="3" t="n">
         <x:v>79.3</x:v>
@@ -18028,13 +18188,13 @@
         <x:v>73.7</x:v>
       </x:c>
       <x:c r="KX19" s="3" t="n">
-        <x:v>79</x:v>
+        <x:v>79.1</x:v>
       </x:c>
       <x:c r="KY19" s="3" t="n">
         <x:v>70.9</x:v>
       </x:c>
       <x:c r="KZ19" s="3" t="n">
-        <x:v>74.7</x:v>
+        <x:v>74.8</x:v>
       </x:c>
       <x:c r="LA19" s="3" t="n">
         <x:v>75.3</x:v>
@@ -18043,7 +18203,7 @@
         <x:v>79.8</x:v>
       </x:c>
       <x:c r="LC19" s="3" t="n">
-        <x:v>80.7</x:v>
+        <x:v>80.6</x:v>
       </x:c>
       <x:c r="LD19" s="3" t="n">
         <x:v>77.4</x:v>
@@ -18052,7 +18212,7 @@
         <x:v>76.6</x:v>
       </x:c>
       <x:c r="LF19" s="3" t="n">
-        <x:v>77.2</x:v>
+        <x:v>77.1</x:v>
       </x:c>
       <x:c r="LG19" s="3" t="n">
         <x:v>83.2</x:v>
@@ -18070,12 +18230,21 @@
         <x:v>75.4</x:v>
       </x:c>
       <x:c r="LL19" s="3" t="n">
-        <x:v>79.2</x:v>
+        <x:v>79.3</x:v>
+      </x:c>
+      <x:c r="LM19" s="3" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="LN19" s="3" t="n">
+        <x:v>75.5</x:v>
+      </x:c>
+      <x:c r="LO19" s="3" t="n">
+        <x:v>81.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:324">
+    <x:row r="20" spans="1:327">
       <x:c r="B20" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>211.2</x:v>
@@ -18948,10 +19117,10 @@
         <x:v>79.5</x:v>
       </x:c>
       <x:c r="KG20" s="3" t="n">
-        <x:v>79.9</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="KH20" s="3" t="n">
-        <x:v>81.5</x:v>
+        <x:v>81.3</x:v>
       </x:c>
       <x:c r="KI20" s="3" t="n">
         <x:v>78</x:v>
@@ -18984,10 +19153,10 @@
         <x:v>79.8</x:v>
       </x:c>
       <x:c r="KS20" s="3" t="n">
-        <x:v>73.6</x:v>
+        <x:v>73.7</x:v>
       </x:c>
       <x:c r="KT20" s="3" t="n">
-        <x:v>67.3</x:v>
+        <x:v>67.1</x:v>
       </x:c>
       <x:c r="KU20" s="3" t="n">
         <x:v>71.7</x:v>
@@ -19020,10 +19189,10 @@
         <x:v>77.3</x:v>
       </x:c>
       <x:c r="LE20" s="3" t="n">
-        <x:v>78.6</x:v>
+        <x:v>78.7</x:v>
       </x:c>
       <x:c r="LF20" s="3" t="n">
-        <x:v>76.1</x:v>
+        <x:v>75.9</x:v>
       </x:c>
       <x:c r="LG20" s="3" t="n">
         <x:v>81.9</x:v>
@@ -19043,10 +19212,19 @@
       <x:c r="LL20" s="3" t="n">
         <x:v>86.2</x:v>
       </x:c>
+      <x:c r="LM20" s="3" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="LN20" s="3" t="n">
+        <x:v>71.7</x:v>
+      </x:c>
+      <x:c r="LO20" s="3" t="n">
+        <x:v>85.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="21" spans="1:324">
+    <x:row r="21" spans="1:327">
       <x:c r="B21" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>204.8</x:v>
@@ -20014,13 +20192,22 @@
       <x:c r="LL21" s="3" t="n">
         <x:v>82.9</x:v>
       </x:c>
+      <x:c r="LM21" s="3" t="n">
+        <x:v>86.1</x:v>
+      </x:c>
+      <x:c r="LN21" s="3" t="n">
+        <x:v>75.3</x:v>
+      </x:c>
+      <x:c r="LO21" s="3" t="n">
+        <x:v>80.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="22" spans="1:324">
+    <x:row r="22" spans="1:327">
       <x:c r="A22" s="2" t="s">
-        <x:v>333</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C22" s="3" t="n">
         <x:v>95.7</x:v>
@@ -20893,7 +21080,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="KG22" s="3" t="n">
-        <x:v>83.2</x:v>
+        <x:v>83.1</x:v>
       </x:c>
       <x:c r="KH22" s="3" t="n">
         <x:v>81.9</x:v>
@@ -20920,10 +21107,10 @@
         <x:v>80.3</x:v>
       </x:c>
       <x:c r="KP22" s="3" t="n">
-        <x:v>80.2</x:v>
+        <x:v>80.1</x:v>
       </x:c>
       <x:c r="KQ22" s="3" t="n">
-        <x:v>80.3</x:v>
+        <x:v>80.4</x:v>
       </x:c>
       <x:c r="KR22" s="3" t="n">
         <x:v>84.9</x:v>
@@ -20956,10 +21143,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="LB22" s="3" t="n">
-        <x:v>92.9</x:v>
+        <x:v>92.8</x:v>
       </x:c>
       <x:c r="LC22" s="3" t="n">
-        <x:v>89.5</x:v>
+        <x:v>89.7</x:v>
       </x:c>
       <x:c r="LD22" s="3" t="n">
         <x:v>92.8</x:v>
@@ -20968,7 +21155,7 @@
         <x:v>91.2</x:v>
       </x:c>
       <x:c r="LF22" s="3" t="n">
-        <x:v>95.4</x:v>
+        <x:v>95.3</x:v>
       </x:c>
       <x:c r="LG22" s="3" t="n">
         <x:v>90</x:v>
@@ -20977,7 +21164,7 @@
         <x:v>86.5</x:v>
       </x:c>
       <x:c r="LI22" s="3" t="n">
-        <x:v>98.4</x:v>
+        <x:v>98.3</x:v>
       </x:c>
       <x:c r="LJ22" s="3" t="n">
         <x:v>79.3</x:v>
@@ -20988,10 +21175,19 @@
       <x:c r="LL22" s="3" t="n">
         <x:v>88.7</x:v>
       </x:c>
+      <x:c r="LM22" s="3" t="n">
+        <x:v>92.8</x:v>
+      </x:c>
+      <x:c r="LN22" s="3" t="n">
+        <x:v>88.6</x:v>
+      </x:c>
+      <x:c r="LO22" s="3" t="n">
+        <x:v>99.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="23" spans="1:324">
+    <x:row r="23" spans="1:327">
       <x:c r="B23" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C23" s="3" t="n">
         <x:v>100</x:v>
@@ -21864,16 +22060,16 @@
         <x:v>79.8</x:v>
       </x:c>
       <x:c r="KG23" s="3" t="n">
-        <x:v>84</x:v>
+        <x:v>84.2</x:v>
       </x:c>
       <x:c r="KH23" s="3" t="n">
-        <x:v>75.8</x:v>
+        <x:v>75.6</x:v>
       </x:c>
       <x:c r="KI23" s="3" t="n">
         <x:v>86.6</x:v>
       </x:c>
       <x:c r="KJ23" s="3" t="n">
-        <x:v>97.4</x:v>
+        <x:v>97.3</x:v>
       </x:c>
       <x:c r="KK23" s="3" t="n">
         <x:v>44</x:v>
@@ -21900,13 +22096,13 @@
         <x:v>80.7</x:v>
       </x:c>
       <x:c r="KS23" s="3" t="n">
-        <x:v>83.7</x:v>
+        <x:v>83.9</x:v>
       </x:c>
       <x:c r="KT23" s="3" t="n">
-        <x:v>78.5</x:v>
+        <x:v>78.3</x:v>
       </x:c>
       <x:c r="KU23" s="3" t="n">
-        <x:v>89.6</x:v>
+        <x:v>89.7</x:v>
       </x:c>
       <x:c r="KV23" s="3" t="n">
         <x:v>95.4</x:v>
@@ -21936,16 +22132,16 @@
         <x:v>88.4</x:v>
       </x:c>
       <x:c r="LE23" s="3" t="n">
-        <x:v>91.7</x:v>
+        <x:v>91.9</x:v>
       </x:c>
       <x:c r="LF23" s="3" t="n">
-        <x:v>87.8</x:v>
+        <x:v>87.6</x:v>
       </x:c>
       <x:c r="LG23" s="3" t="n">
-        <x:v>92.6</x:v>
+        <x:v>92.7</x:v>
       </x:c>
       <x:c r="LH23" s="3" t="n">
-        <x:v>102.2</x:v>
+        <x:v>102.1</x:v>
       </x:c>
       <x:c r="LI23" s="3" t="n">
         <x:v>51.9</x:v>
@@ -21959,10 +22155,19 @@
       <x:c r="LL23" s="3" t="n">
         <x:v>108.4</x:v>
       </x:c>
+      <x:c r="LM23" s="3" t="n">
+        <x:v>103.9</x:v>
+      </x:c>
+      <x:c r="LN23" s="3" t="n">
+        <x:v>71.2</x:v>
+      </x:c>
+      <x:c r="LO23" s="3" t="n">
+        <x:v>97.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="24" spans="1:324">
+    <x:row r="24" spans="1:327">
       <x:c r="B24" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C24" s="3" t="n">
         <x:v>98.9</x:v>
@@ -22930,13 +23135,22 @@
       <x:c r="LL24" s="3" t="n">
         <x:v>103.7</x:v>
       </x:c>
+      <x:c r="LM24" s="3" t="n">
+        <x:v>106.2</x:v>
+      </x:c>
+      <x:c r="LN24" s="3" t="n">
+        <x:v>70.7</x:v>
+      </x:c>
+      <x:c r="LO24" s="3" t="n">
+        <x:v>93.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="25" spans="1:324">
+    <x:row r="25" spans="1:327">
       <x:c r="A25" s="2" t="s">
-        <x:v>334</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C25" s="3" t="n">
         <x:v>109.8</x:v>
@@ -23833,7 +24047,7 @@
         <x:v>51.2</x:v>
       </x:c>
       <x:c r="KO25" s="3" t="n">
-        <x:v>50.9</x:v>
+        <x:v>50.8</x:v>
       </x:c>
       <x:c r="KP25" s="3" t="n">
         <x:v>52.3</x:v>
@@ -23860,7 +24074,7 @@
         <x:v>47.5</x:v>
       </x:c>
       <x:c r="KX25" s="3" t="n">
-        <x:v>42.4</x:v>
+        <x:v>42.5</x:v>
       </x:c>
       <x:c r="KY25" s="3" t="n">
         <x:v>48.2</x:v>
@@ -23869,10 +24083,10 @@
         <x:v>50.9</x:v>
       </x:c>
       <x:c r="LA25" s="3" t="n">
-        <x:v>52.8</x:v>
+        <x:v>52.7</x:v>
       </x:c>
       <x:c r="LB25" s="3" t="n">
-        <x:v>57.3</x:v>
+        <x:v>57.4</x:v>
       </x:c>
       <x:c r="LC25" s="3" t="n">
         <x:v>51.3</x:v>
@@ -23904,10 +24118,19 @@
       <x:c r="LL25" s="3" t="n">
         <x:v>54.7</x:v>
       </x:c>
+      <x:c r="LM25" s="3" t="n">
+        <x:v>55.6</x:v>
+      </x:c>
+      <x:c r="LN25" s="3" t="n">
+        <x:v>57.6</x:v>
+      </x:c>
+      <x:c r="LO25" s="3" t="n">
+        <x:v>59.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="26" spans="1:324">
+    <x:row r="26" spans="1:327">
       <x:c r="B26" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C26" s="3" t="n">
         <x:v>118.2</x:v>
@@ -24783,7 +25006,7 @@
         <x:v>55.6</x:v>
       </x:c>
       <x:c r="KH26" s="3" t="n">
-        <x:v>48.3</x:v>
+        <x:v>48.2</x:v>
       </x:c>
       <x:c r="KI26" s="3" t="n">
         <x:v>55.5</x:v>
@@ -24852,10 +25075,10 @@
         <x:v>52.9</x:v>
       </x:c>
       <x:c r="LE26" s="3" t="n">
-        <x:v>56.3</x:v>
+        <x:v>56.4</x:v>
       </x:c>
       <x:c r="LF26" s="3" t="n">
-        <x:v>52.6</x:v>
+        <x:v>52.5</x:v>
       </x:c>
       <x:c r="LG26" s="3" t="n">
         <x:v>52.6</x:v>
@@ -24875,10 +25098,19 @@
       <x:c r="LL26" s="3" t="n">
         <x:v>57.2</x:v>
       </x:c>
+      <x:c r="LM26" s="3" t="n">
+        <x:v>56.9</x:v>
+      </x:c>
+      <x:c r="LN26" s="3" t="n">
+        <x:v>56.9</x:v>
+      </x:c>
+      <x:c r="LO26" s="3" t="n">
+        <x:v>61.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="27" spans="1:324">
+    <x:row r="27" spans="1:327">
       <x:c r="B27" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C27" s="3" t="n">
         <x:v>117</x:v>
@@ -25846,13 +26078,22 @@
       <x:c r="LL27" s="3" t="n">
         <x:v>56.7</x:v>
       </x:c>
+      <x:c r="LM27" s="3" t="n">
+        <x:v>57.1</x:v>
+      </x:c>
+      <x:c r="LN27" s="3" t="n">
+        <x:v>53.6</x:v>
+      </x:c>
+      <x:c r="LO27" s="3" t="n">
+        <x:v>60.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="28" spans="1:324">
+    <x:row r="28" spans="1:327">
       <x:c r="A28" s="2" t="s">
-        <x:v>335</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C28" s="3" t="n">
         <x:v>105.5</x:v>
@@ -26820,10 +27061,19 @@
       <x:c r="LL28" s="3" t="n">
         <x:v>57.6</x:v>
       </x:c>
+      <x:c r="LM28" s="3" t="n">
+        <x:v>57.6</x:v>
+      </x:c>
+      <x:c r="LN28" s="3" t="n">
+        <x:v>58.5</x:v>
+      </x:c>
+      <x:c r="LO28" s="3" t="n">
+        <x:v>57</x:v>
+      </x:c>
     </x:row>
-    <x:row r="29" spans="1:324">
+    <x:row r="29" spans="1:327">
       <x:c r="B29" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C29" s="3" t="n">
         <x:v>112.9</x:v>
@@ -27696,10 +27946,10 @@
         <x:v>73.4</x:v>
       </x:c>
       <x:c r="KG29" s="3" t="n">
-        <x:v>74.7</x:v>
+        <x:v>74.8</x:v>
       </x:c>
       <x:c r="KH29" s="3" t="n">
-        <x:v>72.8</x:v>
+        <x:v>72.7</x:v>
       </x:c>
       <x:c r="KI29" s="3" t="n">
         <x:v>74.1</x:v>
@@ -27735,7 +27985,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="KT29" s="3" t="n">
-        <x:v>56.9</x:v>
+        <x:v>56.8</x:v>
       </x:c>
       <x:c r="KU29" s="3" t="n">
         <x:v>59.9</x:v>
@@ -27771,7 +28021,7 @@
         <x:v>59.1</x:v>
       </x:c>
       <x:c r="LF29" s="3" t="n">
-        <x:v>52.7</x:v>
+        <x:v>52.6</x:v>
       </x:c>
       <x:c r="LG29" s="3" t="n">
         <x:v>56.7</x:v>
@@ -27791,10 +28041,19 @@
       <x:c r="LL29" s="3" t="n">
         <x:v>60.7</x:v>
       </x:c>
+      <x:c r="LM29" s="3" t="n">
+        <x:v>60.4</x:v>
+      </x:c>
+      <x:c r="LN29" s="3" t="n">
+        <x:v>58.5</x:v>
+      </x:c>
+      <x:c r="LO29" s="3" t="n">
+        <x:v>58.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="30" spans="1:324">
+    <x:row r="30" spans="1:327">
       <x:c r="B30" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C30" s="3" t="n">
         <x:v>112.2</x:v>
@@ -28762,13 +29021,22 @@
       <x:c r="LL30" s="3" t="n">
         <x:v>59.2</x:v>
       </x:c>
+      <x:c r="LM30" s="3" t="n">
+        <x:v>61.2</x:v>
+      </x:c>
+      <x:c r="LN30" s="3" t="n">
+        <x:v>56.8</x:v>
+      </x:c>
+      <x:c r="LO30" s="3" t="n">
+        <x:v>57.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="31" spans="1:324">
+    <x:row r="31" spans="1:327">
       <x:c r="A31" s="2" t="s">
-        <x:v>336</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C31" s="3" t="n">
         <x:v>86.5</x:v>
@@ -29665,13 +29933,13 @@
         <x:v>124.7</x:v>
       </x:c>
       <x:c r="KO31" s="3" t="n">
-        <x:v>122.8</x:v>
+        <x:v>122.7</x:v>
       </x:c>
       <x:c r="KP31" s="3" t="n">
         <x:v>124</x:v>
       </x:c>
       <x:c r="KQ31" s="3" t="n">
-        <x:v>123.3</x:v>
+        <x:v>123.2</x:v>
       </x:c>
       <x:c r="KR31" s="3" t="n">
         <x:v>124.4</x:v>
@@ -29686,16 +29954,16 @@
         <x:v>110.4</x:v>
       </x:c>
       <x:c r="KV31" s="3" t="n">
-        <x:v>115.7</x:v>
+        <x:v>115.8</x:v>
       </x:c>
       <x:c r="KW31" s="3" t="n">
-        <x:v>126.2</x:v>
+        <x:v>126.3</x:v>
       </x:c>
       <x:c r="KX31" s="3" t="n">
         <x:v>118.8</x:v>
       </x:c>
       <x:c r="KY31" s="3" t="n">
-        <x:v>124.5</x:v>
+        <x:v>124.6</x:v>
       </x:c>
       <x:c r="KZ31" s="3" t="n">
         <x:v>121.2</x:v>
@@ -29704,10 +29972,10 @@
         <x:v>125.9</x:v>
       </x:c>
       <x:c r="LB31" s="3" t="n">
-        <x:v>123.7</x:v>
+        <x:v>123.6</x:v>
       </x:c>
       <x:c r="LC31" s="3" t="n">
-        <x:v>129.5</x:v>
+        <x:v>129.4</x:v>
       </x:c>
       <x:c r="LD31" s="3" t="n">
         <x:v>126.7</x:v>
@@ -29719,13 +29987,13 @@
         <x:v>135.8</x:v>
       </x:c>
       <x:c r="LG31" s="3" t="n">
-        <x:v>135.4</x:v>
+        <x:v>135.5</x:v>
       </x:c>
       <x:c r="LH31" s="3" t="n">
         <x:v>132.5</x:v>
       </x:c>
       <x:c r="LI31" s="3" t="n">
-        <x:v>134.1</x:v>
+        <x:v>134.2</x:v>
       </x:c>
       <x:c r="LJ31" s="3" t="n">
         <x:v>139</x:v>
@@ -29734,12 +30002,21 @@
         <x:v>137.1</x:v>
       </x:c>
       <x:c r="LL31" s="3" t="n">
-        <x:v>131.1</x:v>
+        <x:v>131.2</x:v>
+      </x:c>
+      <x:c r="LM31" s="3" t="n">
+        <x:v>128.9</x:v>
+      </x:c>
+      <x:c r="LN31" s="3" t="n">
+        <x:v>126.3</x:v>
+      </x:c>
+      <x:c r="LO31" s="3" t="n">
+        <x:v>134</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:324">
+    <x:row r="32" spans="1:327">
       <x:c r="B32" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C32" s="3" t="n">
         <x:v>92.9</x:v>
@@ -30615,7 +30892,7 @@
         <x:v>129.7</x:v>
       </x:c>
       <x:c r="KH32" s="3" t="n">
-        <x:v>124.3</x:v>
+        <x:v>124.2</x:v>
       </x:c>
       <x:c r="KI32" s="3" t="n">
         <x:v>137</x:v>
@@ -30648,7 +30925,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="KS32" s="3" t="n">
-        <x:v>132.4</x:v>
+        <x:v>132.5</x:v>
       </x:c>
       <x:c r="KT32" s="3" t="n">
         <x:v>125.8</x:v>
@@ -30707,10 +30984,19 @@
       <x:c r="LL32" s="3" t="n">
         <x:v>130.1</x:v>
       </x:c>
+      <x:c r="LM32" s="3" t="n">
+        <x:v>130.6</x:v>
+      </x:c>
+      <x:c r="LN32" s="3" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="LO32" s="3" t="n">
+        <x:v>143.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="33" spans="1:324">
+    <x:row r="33" spans="1:327">
       <x:c r="B33" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C33" s="3" t="n">
         <x:v>92.1</x:v>
@@ -31678,13 +31964,22 @@
       <x:c r="LL33" s="3" t="n">
         <x:v>128.6</x:v>
       </x:c>
+      <x:c r="LM33" s="3" t="n">
+        <x:v>131.4</x:v>
+      </x:c>
+      <x:c r="LN33" s="3" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="LO33" s="3" t="n">
+        <x:v>135.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="34" spans="1:324">
+    <x:row r="34" spans="1:327">
       <x:c r="A34" s="2" t="s">
-        <x:v>337</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C34" s="3" t="n">
         <x:v>102.8</x:v>
@@ -32581,10 +32876,10 @@
         <x:v>109.1</x:v>
       </x:c>
       <x:c r="KO34" s="3" t="n">
-        <x:v>112.4</x:v>
+        <x:v>112.5</x:v>
       </x:c>
       <x:c r="KP34" s="3" t="n">
-        <x:v>113.7</x:v>
+        <x:v>113.8</x:v>
       </x:c>
       <x:c r="KQ34" s="3" t="n">
         <x:v>112.7</x:v>
@@ -32599,10 +32894,10 @@
         <x:v>117.9</x:v>
       </x:c>
       <x:c r="KU34" s="3" t="n">
-        <x:v>110.3</x:v>
+        <x:v>110.2</x:v>
       </x:c>
       <x:c r="KV34" s="3" t="n">
-        <x:v>120.1</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="KW34" s="3" t="n">
         <x:v>118.2</x:v>
@@ -32611,51 +32906,60 @@
         <x:v>116.9</x:v>
       </x:c>
       <x:c r="KY34" s="3" t="n">
-        <x:v>116.3</x:v>
+        <x:v>116.2</x:v>
       </x:c>
       <x:c r="KZ34" s="3" t="n">
         <x:v>119.1</x:v>
       </x:c>
       <x:c r="LA34" s="3" t="n">
-        <x:v>116.5</x:v>
+        <x:v>116.6</x:v>
       </x:c>
       <x:c r="LB34" s="3" t="n">
-        <x:v>110.4</x:v>
+        <x:v>110.5</x:v>
       </x:c>
       <x:c r="LC34" s="3" t="n">
         <x:v>110.7</x:v>
       </x:c>
       <x:c r="LD34" s="3" t="n">
-        <x:v>110.9</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="LE34" s="3" t="n">
         <x:v>114.5</x:v>
       </x:c>
       <x:c r="LF34" s="3" t="n">
-        <x:v>125.6</x:v>
+        <x:v>125.5</x:v>
       </x:c>
       <x:c r="LG34" s="3" t="n">
-        <x:v>124</x:v>
+        <x:v>123.9</x:v>
       </x:c>
       <x:c r="LH34" s="3" t="n">
-        <x:v>119</x:v>
+        <x:v>118.9</x:v>
       </x:c>
       <x:c r="LI34" s="3" t="n">
-        <x:v>123.9</x:v>
+        <x:v>123.8</x:v>
       </x:c>
       <x:c r="LJ34" s="3" t="n">
-        <x:v>125.4</x:v>
+        <x:v>125.3</x:v>
       </x:c>
       <x:c r="LK34" s="3" t="n">
-        <x:v>123.5</x:v>
+        <x:v>123.4</x:v>
       </x:c>
       <x:c r="LL34" s="3" t="n">
-        <x:v>116.9</x:v>
+        <x:v>116.8</x:v>
+      </x:c>
+      <x:c r="LM34" s="3" t="n">
+        <x:v>117.7</x:v>
+      </x:c>
+      <x:c r="LN34" s="3" t="n">
+        <x:v>120.5</x:v>
+      </x:c>
+      <x:c r="LO34" s="3" t="n">
+        <x:v>116</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:324">
+    <x:row r="35" spans="1:327">
       <x:c r="B35" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C35" s="3" t="n">
         <x:v>108.2</x:v>
@@ -33623,10 +33927,19 @@
       <x:c r="LL35" s="3" t="n">
         <x:v>116.1</x:v>
       </x:c>
+      <x:c r="LM35" s="3" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="LN35" s="3" t="n">
+        <x:v>122.7</x:v>
+      </x:c>
+      <x:c r="LO35" s="3" t="n">
+        <x:v>121.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="36" spans="1:324">
+    <x:row r="36" spans="1:327">
       <x:c r="B36" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C36" s="3" t="n">
         <x:v>108.4</x:v>
@@ -34594,13 +34907,22 @@
       <x:c r="LL36" s="3" t="n">
         <x:v>116.1</x:v>
       </x:c>
+      <x:c r="LM36" s="3" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="LN36" s="3" t="n">
+        <x:v>122.7</x:v>
+      </x:c>
+      <x:c r="LO36" s="3" t="n">
+        <x:v>121.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="37" spans="1:324">
+    <x:row r="37" spans="1:327">
       <x:c r="A37" s="2" t="s">
-        <x:v>338</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C37" s="3" t="n">
         <x:v>116.9</x:v>
@@ -35470,7 +35792,7 @@
         <x:v>95.4</x:v>
       </x:c>
       <x:c r="KF37" s="3" t="n">
-        <x:v>93</x:v>
+        <x:v>93.2</x:v>
       </x:c>
       <x:c r="KG37" s="3" t="n">
         <x:v>91.3</x:v>
@@ -35506,7 +35828,7 @@
         <x:v>89.9</x:v>
       </x:c>
       <x:c r="KR37" s="3" t="n">
-        <x:v>92.5</x:v>
+        <x:v>92.7</x:v>
       </x:c>
       <x:c r="KS37" s="3" t="n">
         <x:v>85.4</x:v>
@@ -35533,28 +35855,28 @@
         <x:v>85.5</x:v>
       </x:c>
       <x:c r="LA37" s="3" t="n">
-        <x:v>91.9</x:v>
+        <x:v>91.8</x:v>
       </x:c>
       <x:c r="LB37" s="3" t="n">
         <x:v>91.2</x:v>
       </x:c>
       <x:c r="LC37" s="3" t="n">
-        <x:v>87.2</x:v>
+        <x:v>87.3</x:v>
       </x:c>
       <x:c r="LD37" s="3" t="n">
-        <x:v>87.5</x:v>
+        <x:v>87.7</x:v>
       </x:c>
       <x:c r="LE37" s="3" t="n">
-        <x:v>94.4</x:v>
+        <x:v>94.3</x:v>
       </x:c>
       <x:c r="LF37" s="3" t="n">
-        <x:v>92.1</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="LG37" s="3" t="n">
         <x:v>92</x:v>
       </x:c>
       <x:c r="LH37" s="3" t="n">
-        <x:v>88.4</x:v>
+        <x:v>88.3</x:v>
       </x:c>
       <x:c r="LI37" s="3" t="n">
         <x:v>88</x:v>
@@ -35568,10 +35890,19 @@
       <x:c r="LL37" s="3" t="n">
         <x:v>86.5</x:v>
       </x:c>
+      <x:c r="LM37" s="3" t="n">
+        <x:v>89.5</x:v>
+      </x:c>
+      <x:c r="LN37" s="3" t="n">
+        <x:v>88.8</x:v>
+      </x:c>
+      <x:c r="LO37" s="3" t="n">
+        <x:v>89.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="38" spans="1:324">
+    <x:row r="38" spans="1:327">
       <x:c r="B38" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C38" s="3" t="n">
         <x:v>122.2</x:v>
@@ -36444,16 +36775,16 @@
         <x:v>86.1</x:v>
       </x:c>
       <x:c r="KG38" s="3" t="n">
-        <x:v>88.2</x:v>
+        <x:v>88.4</x:v>
       </x:c>
       <x:c r="KH38" s="3" t="n">
-        <x:v>86.3</x:v>
+        <x:v>86.1</x:v>
       </x:c>
       <x:c r="KI38" s="3" t="n">
-        <x:v>99.1</x:v>
+        <x:v>99.2</x:v>
       </x:c>
       <x:c r="KJ38" s="3" t="n">
-        <x:v>106.9</x:v>
+        <x:v>106.8</x:v>
       </x:c>
       <x:c r="KK38" s="3" t="n">
         <x:v>63.9</x:v>
@@ -36480,16 +36811,16 @@
         <x:v>85.8</x:v>
       </x:c>
       <x:c r="KS38" s="3" t="n">
-        <x:v>82.4</x:v>
+        <x:v>82.6</x:v>
       </x:c>
       <x:c r="KT38" s="3" t="n">
-        <x:v>84.6</x:v>
+        <x:v>84.5</x:v>
       </x:c>
       <x:c r="KU38" s="3" t="n">
         <x:v>90.2</x:v>
       </x:c>
       <x:c r="KV38" s="3" t="n">
-        <x:v>99.1</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="KW38" s="3" t="n">
         <x:v>56</x:v>
@@ -36516,16 +36847,16 @@
         <x:v>81.2</x:v>
       </x:c>
       <x:c r="LE38" s="3" t="n">
-        <x:v>91.2</x:v>
+        <x:v>91.3</x:v>
       </x:c>
       <x:c r="LF38" s="3" t="n">
-        <x:v>87</x:v>
+        <x:v>86.9</x:v>
       </x:c>
       <x:c r="LG38" s="3" t="n">
-        <x:v>98.9</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="LH38" s="3" t="n">
-        <x:v>102.5</x:v>
+        <x:v>102.4</x:v>
       </x:c>
       <x:c r="LI38" s="3" t="n">
         <x:v>60.8</x:v>
@@ -36539,10 +36870,19 @@
       <x:c r="LL38" s="3" t="n">
         <x:v>101.2</x:v>
       </x:c>
+      <x:c r="LM38" s="3" t="n">
+        <x:v>94.1</x:v>
+      </x:c>
+      <x:c r="LN38" s="3" t="n">
+        <x:v>73.3</x:v>
+      </x:c>
+      <x:c r="LO38" s="3" t="n">
+        <x:v>85.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="39" spans="1:324">
+    <x:row r="39" spans="1:327">
       <x:c r="B39" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C39" s="3" t="n">
         <x:v>121.4</x:v>
@@ -37510,13 +37850,22 @@
       <x:c r="LL39" s="3" t="n">
         <x:v>98.1</x:v>
       </x:c>
+      <x:c r="LM39" s="3" t="n">
+        <x:v>95.6</x:v>
+      </x:c>
+      <x:c r="LN39" s="3" t="n">
+        <x:v>74.3</x:v>
+      </x:c>
+      <x:c r="LO39" s="3" t="n">
+        <x:v>82.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="40" spans="1:324">
+    <x:row r="40" spans="1:327">
       <x:c r="A40" s="2" t="s">
-        <x:v>339</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C40" s="3" t="n">
         <x:v>90.4</x:v>
@@ -38386,10 +38735,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="KF40" s="3" t="n">
-        <x:v>81.8</x:v>
+        <x:v>82.1</x:v>
       </x:c>
       <x:c r="KG40" s="3" t="n">
-        <x:v>79.4</x:v>
+        <x:v>79.7</x:v>
       </x:c>
       <x:c r="KH40" s="3" t="n">
         <x:v>78.7</x:v>
@@ -38398,13 +38747,13 @@
         <x:v>79.7</x:v>
       </x:c>
       <x:c r="KJ40" s="3" t="n">
-        <x:v>79.9</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="KK40" s="3" t="n">
-        <x:v>78.8</x:v>
+        <x:v>78.9</x:v>
       </x:c>
       <x:c r="KL40" s="3" t="n">
-        <x:v>77.9</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="KM40" s="3" t="n">
         <x:v>79.5</x:v>
@@ -38413,31 +38762,31 @@
         <x:v>76.8</x:v>
       </x:c>
       <x:c r="KO40" s="3" t="n">
-        <x:v>75.3</x:v>
+        <x:v>75.5</x:v>
       </x:c>
       <x:c r="KP40" s="3" t="n">
-        <x:v>74.2</x:v>
+        <x:v>74.4</x:v>
       </x:c>
       <x:c r="KQ40" s="3" t="n">
-        <x:v>75.9</x:v>
+        <x:v>76.1</x:v>
       </x:c>
       <x:c r="KR40" s="3" t="n">
-        <x:v>75.2</x:v>
+        <x:v>75.1</x:v>
       </x:c>
       <x:c r="KS40" s="3" t="n">
-        <x:v>76.3</x:v>
+        <x:v>76.4</x:v>
       </x:c>
       <x:c r="KT40" s="3" t="n">
-        <x:v>76.2</x:v>
+        <x:v>76.1</x:v>
       </x:c>
       <x:c r="KU40" s="3" t="n">
-        <x:v>73.5</x:v>
+        <x:v>73.4</x:v>
       </x:c>
       <x:c r="KV40" s="3" t="n">
         <x:v>68.9</x:v>
       </x:c>
       <x:c r="KW40" s="3" t="n">
-        <x:v>69.7</x:v>
+        <x:v>69.8</x:v>
       </x:c>
       <x:c r="KX40" s="3" t="n">
         <x:v>75.9</x:v>
@@ -38449,45 +38798,54 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="LA40" s="3" t="n">
+        <x:v>80.4</x:v>
+      </x:c>
+      <x:c r="LB40" s="3" t="n">
+        <x:v>81.2</x:v>
+      </x:c>
+      <x:c r="LC40" s="3" t="n">
+        <x:v>79.9</x:v>
+      </x:c>
+      <x:c r="LD40" s="3" t="n">
         <x:v>80.3</x:v>
-      </x:c>
-      <x:c r="LB40" s="3" t="n">
-        <x:v>81.1</x:v>
-      </x:c>
-      <x:c r="LC40" s="3" t="n">
-        <x:v>79.7</x:v>
-      </x:c>
-      <x:c r="LD40" s="3" t="n">
-        <x:v>80</x:v>
       </x:c>
       <x:c r="LE40" s="3" t="n">
         <x:v>79.4</x:v>
       </x:c>
       <x:c r="LF40" s="3" t="n">
-        <x:v>81.6</x:v>
+        <x:v>81.7</x:v>
       </x:c>
       <x:c r="LG40" s="3" t="n">
-        <x:v>77</x:v>
+        <x:v>77.3</x:v>
       </x:c>
       <x:c r="LH40" s="3" t="n">
-        <x:v>80</x:v>
+        <x:v>80.1</x:v>
       </x:c>
       <x:c r="LI40" s="3" t="n">
+        <x:v>79.7</x:v>
+      </x:c>
+      <x:c r="LJ40" s="3" t="n">
+        <x:v>80.4</x:v>
+      </x:c>
+      <x:c r="LK40" s="3" t="n">
         <x:v>79.6</x:v>
       </x:c>
-      <x:c r="LJ40" s="3" t="n">
-        <x:v>80.2</x:v>
-      </x:c>
-      <x:c r="LK40" s="3" t="n">
-        <x:v>79.7</x:v>
-      </x:c>
       <x:c r="LL40" s="3" t="n">
-        <x:v>77</x:v>
+        <x:v>77.4</x:v>
+      </x:c>
+      <x:c r="LM40" s="3" t="n">
+        <x:v>84.6</x:v>
+      </x:c>
+      <x:c r="LN40" s="3" t="n">
+        <x:v>85.3</x:v>
+      </x:c>
+      <x:c r="LO40" s="3" t="n">
+        <x:v>85.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:324">
+    <x:row r="41" spans="1:327">
       <x:c r="B41" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C41" s="3" t="n">
         <x:v>93.5</x:v>
@@ -39354,22 +39712,22 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="KE41" s="3" t="n">
-        <x:v>82.5</x:v>
+        <x:v>82.4</x:v>
       </x:c>
       <x:c r="KF41" s="3" t="n">
         <x:v>78.5</x:v>
       </x:c>
       <x:c r="KG41" s="3" t="n">
-        <x:v>82.5</x:v>
+        <x:v>82.8</x:v>
       </x:c>
       <x:c r="KH41" s="3" t="n">
-        <x:v>77.9</x:v>
+        <x:v>77.8</x:v>
       </x:c>
       <x:c r="KI41" s="3" t="n">
-        <x:v>85.9</x:v>
+        <x:v>86.4</x:v>
       </x:c>
       <x:c r="KJ41" s="3" t="n">
-        <x:v>81.9</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="KK41" s="3" t="n">
         <x:v>70</x:v>
@@ -39381,37 +39739,37 @@
         <x:v>81.7</x:v>
       </x:c>
       <x:c r="KN41" s="3" t="n">
-        <x:v>81.7</x:v>
+        <x:v>81.6</x:v>
       </x:c>
       <x:c r="KO41" s="3" t="n">
-        <x:v>74.8</x:v>
+        <x:v>74.9</x:v>
       </x:c>
       <x:c r="KP41" s="3" t="n">
-        <x:v>68</x:v>
+        <x:v>68.4</x:v>
       </x:c>
       <x:c r="KQ41" s="3" t="n">
-        <x:v>76.6</x:v>
+        <x:v>76.7</x:v>
       </x:c>
       <x:c r="KR41" s="3" t="n">
-        <x:v>72.2</x:v>
+        <x:v>71.9</x:v>
       </x:c>
       <x:c r="KS41" s="3" t="n">
-        <x:v>79.1</x:v>
+        <x:v>79.2</x:v>
       </x:c>
       <x:c r="KT41" s="3" t="n">
-        <x:v>75.2</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="KU41" s="3" t="n">
-        <x:v>79.2</x:v>
+        <x:v>79.6</x:v>
       </x:c>
       <x:c r="KV41" s="3" t="n">
-        <x:v>70.8</x:v>
+        <x:v>70.7</x:v>
       </x:c>
       <x:c r="KW41" s="3" t="n">
         <x:v>61.9</x:v>
       </x:c>
       <x:c r="KX41" s="3" t="n">
-        <x:v>76.8</x:v>
+        <x:v>76.7</x:v>
       </x:c>
       <x:c r="KY41" s="3" t="n">
         <x:v>78.9</x:v>
@@ -39423,13 +39781,13 @@
         <x:v>79.5</x:v>
       </x:c>
       <x:c r="LB41" s="3" t="n">
-        <x:v>74.2</x:v>
+        <x:v>74.6</x:v>
       </x:c>
       <x:c r="LC41" s="3" t="n">
-        <x:v>80.5</x:v>
+        <x:v>80.7</x:v>
       </x:c>
       <x:c r="LD41" s="3" t="n">
-        <x:v>76.7</x:v>
+        <x:v>76.8</x:v>
       </x:c>
       <x:c r="LE41" s="3" t="n">
         <x:v>82.4</x:v>
@@ -39438,7 +39796,7 @@
         <x:v>80.4</x:v>
       </x:c>
       <x:c r="LG41" s="3" t="n">
-        <x:v>82.9</x:v>
+        <x:v>83.7</x:v>
       </x:c>
       <x:c r="LH41" s="3" t="n">
         <x:v>82.3</x:v>
@@ -39447,18 +39805,27 @@
         <x:v>70.7</x:v>
       </x:c>
       <x:c r="LJ41" s="3" t="n">
-        <x:v>81.2</x:v>
+        <x:v>81.3</x:v>
       </x:c>
       <x:c r="LK41" s="3" t="n">
-        <x:v>82.5</x:v>
+        <x:v>82.4</x:v>
       </x:c>
       <x:c r="LL41" s="3" t="n">
-        <x:v>82</x:v>
+        <x:v>82.2</x:v>
+      </x:c>
+      <x:c r="LM41" s="3" t="n">
+        <x:v>83.4</x:v>
+      </x:c>
+      <x:c r="LN41" s="3" t="n">
+        <x:v>78.2</x:v>
+      </x:c>
+      <x:c r="LO41" s="3" t="n">
+        <x:v>86.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:324">
+    <x:row r="42" spans="1:327">
       <x:c r="B42" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C42" s="3" t="n">
         <x:v>93.3</x:v>
@@ -40426,13 +40793,22 @@
       <x:c r="LL42" s="3" t="n">
         <x:v>80.9</x:v>
       </x:c>
+      <x:c r="LM42" s="3" t="n">
+        <x:v>83.8</x:v>
+      </x:c>
+      <x:c r="LN42" s="3" t="n">
+        <x:v>81.1</x:v>
+      </x:c>
+      <x:c r="LO42" s="3" t="n">
+        <x:v>86</x:v>
+      </x:c>
     </x:row>
-    <x:row r="43" spans="1:324">
+    <x:row r="43" spans="1:327">
       <x:c r="A43" s="2" t="s">
-        <x:v>340</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C43" s="3" t="n">
         <x:v>69.8</x:v>
@@ -41299,16 +41675,16 @@
         <x:v>93.4</x:v>
       </x:c>
       <x:c r="KE43" s="3" t="n">
-        <x:v>94.3</x:v>
+        <x:v>94.4</x:v>
       </x:c>
       <x:c r="KF43" s="3" t="n">
-        <x:v>93.7</x:v>
+        <x:v>93.8</x:v>
       </x:c>
       <x:c r="KG43" s="3" t="n">
-        <x:v>90.8</x:v>
+        <x:v>90.9</x:v>
       </x:c>
       <x:c r="KH43" s="3" t="n">
-        <x:v>89.4</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="KI43" s="3" t="n">
         <x:v>92.1</x:v>
@@ -41323,10 +41699,10 @@
         <x:v>91.1</x:v>
       </x:c>
       <x:c r="KM43" s="3" t="n">
-        <x:v>93.1</x:v>
+        <x:v>93.2</x:v>
       </x:c>
       <x:c r="KN43" s="3" t="n">
-        <x:v>92.7</x:v>
+        <x:v>92.8</x:v>
       </x:c>
       <x:c r="KO43" s="3" t="n">
         <x:v>92</x:v>
@@ -41335,22 +41711,22 @@
         <x:v>90.3</x:v>
       </x:c>
       <x:c r="KQ43" s="3" t="n">
-        <x:v>90.2</x:v>
+        <x:v>90.3</x:v>
       </x:c>
       <x:c r="KR43" s="3" t="n">
-        <x:v>89</x:v>
+        <x:v>89.1</x:v>
       </x:c>
       <x:c r="KS43" s="3" t="n">
-        <x:v>90.7</x:v>
+        <x:v>90.8</x:v>
       </x:c>
       <x:c r="KT43" s="3" t="n">
-        <x:v>86.7</x:v>
+        <x:v>86.3</x:v>
       </x:c>
       <x:c r="KU43" s="3" t="n">
         <x:v>78.6</x:v>
       </x:c>
       <x:c r="KV43" s="3" t="n">
-        <x:v>85.4</x:v>
+        <x:v>85.3</x:v>
       </x:c>
       <x:c r="KW43" s="3" t="n">
         <x:v>83.8</x:v>
@@ -41362,7 +41738,7 @@
         <x:v>93.9</x:v>
       </x:c>
       <x:c r="KZ43" s="3" t="n">
-        <x:v>90.4</x:v>
+        <x:v>90.5</x:v>
       </x:c>
       <x:c r="LA43" s="3" t="n">
         <x:v>94.6</x:v>
@@ -41371,16 +41747,16 @@
         <x:v>97.9</x:v>
       </x:c>
       <x:c r="LC43" s="3" t="n">
-        <x:v>95.8</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="LD43" s="3" t="n">
-        <x:v>95.8</x:v>
+        <x:v>95.9</x:v>
       </x:c>
       <x:c r="LE43" s="3" t="n">
         <x:v>97.4</x:v>
       </x:c>
       <x:c r="LF43" s="3" t="n">
-        <x:v>97.4</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="LG43" s="3" t="n">
         <x:v>89.4</x:v>
@@ -41395,15 +41771,24 @@
         <x:v>92.5</x:v>
       </x:c>
       <x:c r="LK43" s="3" t="n">
-        <x:v>95.9</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="LL43" s="3" t="n">
-        <x:v>87.4</x:v>
+        <x:v>87.5</x:v>
+      </x:c>
+      <x:c r="LM43" s="3" t="n">
+        <x:v>95.4</x:v>
+      </x:c>
+      <x:c r="LN43" s="3" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="LO43" s="3" t="n">
+        <x:v>98.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:324">
+    <x:row r="44" spans="1:327">
       <x:c r="B44" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C44" s="3" t="n">
         <x:v>71.9</x:v>
@@ -42371,10 +42756,19 @@
       <x:c r="LL44" s="3" t="n">
         <x:v>92.7</x:v>
       </x:c>
+      <x:c r="LM44" s="3" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="LN44" s="3" t="n">
+        <x:v>96.8</x:v>
+      </x:c>
+      <x:c r="LO44" s="3" t="n">
+        <x:v>99.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="45" spans="1:324">
+    <x:row r="45" spans="1:327">
       <x:c r="B45" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C45" s="3" t="n">
         <x:v>71.7</x:v>
@@ -43342,13 +43736,22 @@
       <x:c r="LL45" s="3" t="n">
         <x:v>92.7</x:v>
       </x:c>
+      <x:c r="LM45" s="3" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="LN45" s="3" t="n">
+        <x:v>96.8</x:v>
+      </x:c>
+      <x:c r="LO45" s="3" t="n">
+        <x:v>99.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="46" spans="1:324">
+    <x:row r="46" spans="1:327">
       <x:c r="A46" s="2" t="s">
-        <x:v>341</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C46" s="3" t="n">
         <x:v>91.9</x:v>
@@ -44254,7 +44657,7 @@
         <x:v>148.1</x:v>
       </x:c>
       <x:c r="KR46" s="3" t="n">
-        <x:v>150.1</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="KS46" s="3" t="n">
         <x:v>138.5</x:v>
@@ -44281,13 +44684,13 @@
         <x:v>138.8</x:v>
       </x:c>
       <x:c r="LA46" s="3" t="n">
-        <x:v>137.3</x:v>
+        <x:v>137.2</x:v>
       </x:c>
       <x:c r="LB46" s="3" t="n">
         <x:v>131</x:v>
       </x:c>
       <x:c r="LC46" s="3" t="n">
-        <x:v>138.6</x:v>
+        <x:v>138.5</x:v>
       </x:c>
       <x:c r="LD46" s="3" t="n">
         <x:v>137.6</x:v>
@@ -44296,10 +44699,10 @@
         <x:v>135.5</x:v>
       </x:c>
       <x:c r="LF46" s="3" t="n">
-        <x:v>132</x:v>
+        <x:v>132.1</x:v>
       </x:c>
       <x:c r="LG46" s="3" t="n">
-        <x:v>139.2</x:v>
+        <x:v>139.3</x:v>
       </x:c>
       <x:c r="LH46" s="3" t="n">
         <x:v>141.3</x:v>
@@ -44316,10 +44719,19 @@
       <x:c r="LL46" s="3" t="n">
         <x:v>142.6</x:v>
       </x:c>
+      <x:c r="LM46" s="3" t="n">
+        <x:v>139.4</x:v>
+      </x:c>
+      <x:c r="LN46" s="3" t="n">
+        <x:v>136.8</x:v>
+      </x:c>
+      <x:c r="LO46" s="3" t="n">
+        <x:v>147</x:v>
+      </x:c>
     </x:row>
-    <x:row r="47" spans="1:324">
+    <x:row r="47" spans="1:327">
       <x:c r="B47" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C47" s="3" t="n">
         <x:v>97.2</x:v>
@@ -45192,16 +45604,16 @@
         <x:v>151.7</x:v>
       </x:c>
       <x:c r="KG47" s="3" t="n">
-        <x:v>154.5</x:v>
+        <x:v>154.8</x:v>
       </x:c>
       <x:c r="KH47" s="3" t="n">
-        <x:v>143.2</x:v>
+        <x:v>142.9</x:v>
       </x:c>
       <x:c r="KI47" s="3" t="n">
+        <x:v>154.8</x:v>
+      </x:c>
+      <x:c r="KJ47" s="3" t="n">
         <x:v>154.7</x:v>
-      </x:c>
-      <x:c r="KJ47" s="3" t="n">
-        <x:v>154.8</x:v>
       </x:c>
       <x:c r="KK47" s="3" t="n">
         <x:v>88.2</x:v>
@@ -45228,16 +45640,16 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="KS47" s="3" t="n">
-        <x:v>145.9</x:v>
+        <x:v>146.1</x:v>
       </x:c>
       <x:c r="KT47" s="3" t="n">
-        <x:v>128.2</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="KU47" s="3" t="n">
-        <x:v>137.9</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="KV47" s="3" t="n">
-        <x:v>142.4</x:v>
+        <x:v>142.3</x:v>
       </x:c>
       <x:c r="KW47" s="3" t="n">
         <x:v>69.4</x:v>
@@ -45264,16 +45676,16 @@
         <x:v>141.4</x:v>
       </x:c>
       <x:c r="LE47" s="3" t="n">
-        <x:v>142.7</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="LF47" s="3" t="n">
-        <x:v>127.1</x:v>
+        <x:v>126.9</x:v>
       </x:c>
       <x:c r="LG47" s="3" t="n">
         <x:v>142.8</x:v>
       </x:c>
       <x:c r="LH47" s="3" t="n">
-        <x:v>147.7</x:v>
+        <x:v>147.6</x:v>
       </x:c>
       <x:c r="LI47" s="3" t="n">
         <x:v>84</x:v>
@@ -45287,10 +45699,19 @@
       <x:c r="LL47" s="3" t="n">
         <x:v>156.8</x:v>
       </x:c>
+      <x:c r="LM47" s="3" t="n">
+        <x:v>153.7</x:v>
+      </x:c>
+      <x:c r="LN47" s="3" t="n">
+        <x:v>135.8</x:v>
+      </x:c>
+      <x:c r="LO47" s="3" t="n">
+        <x:v>153.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="48" spans="1:324">
+    <x:row r="48" spans="1:327">
       <x:c r="B48" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C48" s="3" t="n">
         <x:v>96.2</x:v>
@@ -46258,13 +46679,22 @@
       <x:c r="LL48" s="3" t="n">
         <x:v>150.7</x:v>
       </x:c>
+      <x:c r="LM48" s="3" t="n">
+        <x:v>156.8</x:v>
+      </x:c>
+      <x:c r="LN48" s="3" t="n">
+        <x:v>131.8</x:v>
+      </x:c>
+      <x:c r="LO48" s="3" t="n">
+        <x:v>147.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="49" spans="1:324">
+    <x:row r="49" spans="1:327">
       <x:c r="A49" s="2" t="s">
-        <x:v>342</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C49" s="3" t="n">
         <x:v>89.4</x:v>
@@ -47143,7 +47573,7 @@
         <x:v>133.2</x:v>
       </x:c>
       <x:c r="KI49" s="3" t="n">
-        <x:v>128.7</x:v>
+        <x:v>128.8</x:v>
       </x:c>
       <x:c r="KJ49" s="3" t="n">
         <x:v>128.6</x:v>
@@ -47167,7 +47597,7 @@
         <x:v>130.6</x:v>
       </x:c>
       <x:c r="KQ49" s="3" t="n">
-        <x:v>131.2</x:v>
+        <x:v>131.1</x:v>
       </x:c>
       <x:c r="KR49" s="3" t="n">
         <x:v>130.3</x:v>
@@ -47197,7 +47627,7 @@
         <x:v>136.8</x:v>
       </x:c>
       <x:c r="LA49" s="3" t="n">
-        <x:v>132.1</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="LB49" s="3" t="n">
         <x:v>135.6</x:v>
@@ -47215,7 +47645,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="LG49" s="3" t="n">
-        <x:v>125.9</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="LH49" s="3" t="n">
         <x:v>131</x:v>
@@ -47232,10 +47662,19 @@
       <x:c r="LL49" s="3" t="n">
         <x:v>130.8</x:v>
       </x:c>
+      <x:c r="LM49" s="3" t="n">
+        <x:v>127.9</x:v>
+      </x:c>
+      <x:c r="LN49" s="3" t="n">
+        <x:v>131.3</x:v>
+      </x:c>
+      <x:c r="LO49" s="3" t="n">
+        <x:v>133.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="50" spans="1:324">
+    <x:row r="50" spans="1:327">
       <x:c r="B50" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C50" s="3" t="n">
         <x:v>94.7</x:v>
@@ -48108,13 +48547,13 @@
         <x:v>124.9</x:v>
       </x:c>
       <x:c r="KG50" s="3" t="n">
-        <x:v>125.3</x:v>
+        <x:v>125.6</x:v>
       </x:c>
       <x:c r="KH50" s="3" t="n">
-        <x:v>125.5</x:v>
+        <x:v>125.2</x:v>
       </x:c>
       <x:c r="KI50" s="3" t="n">
-        <x:v>132.9</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="KJ50" s="3" t="n">
         <x:v>137.3</x:v>
@@ -48144,10 +48583,10 @@
         <x:v>130.5</x:v>
       </x:c>
       <x:c r="KS50" s="3" t="n">
-        <x:v>128.9</x:v>
+        <x:v>129.2</x:v>
       </x:c>
       <x:c r="KT50" s="3" t="n">
-        <x:v>127.5</x:v>
+        <x:v>127.3</x:v>
       </x:c>
       <x:c r="KU50" s="3" t="n">
         <x:v>130.5</x:v>
@@ -48180,16 +48619,16 @@
         <x:v>132.1</x:v>
       </x:c>
       <x:c r="LE50" s="3" t="n">
-        <x:v>132.2</x:v>
+        <x:v>132.5</x:v>
       </x:c>
       <x:c r="LF50" s="3" t="n">
-        <x:v>117.7</x:v>
+        <x:v>117.5</x:v>
       </x:c>
       <x:c r="LG50" s="3" t="n">
-        <x:v>130.3</x:v>
+        <x:v>130.4</x:v>
       </x:c>
       <x:c r="LH50" s="3" t="n">
-        <x:v>140.2</x:v>
+        <x:v>140.1</x:v>
       </x:c>
       <x:c r="LI50" s="3" t="n">
         <x:v>76</x:v>
@@ -48203,10 +48642,19 @@
       <x:c r="LL50" s="3" t="n">
         <x:v>143.2</x:v>
       </x:c>
+      <x:c r="LM50" s="3" t="n">
+        <x:v>137.4</x:v>
+      </x:c>
+      <x:c r="LN50" s="3" t="n">
+        <x:v>124.6</x:v>
+      </x:c>
+      <x:c r="LO50" s="3" t="n">
+        <x:v>144.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="51" spans="1:324">
+    <x:row r="51" spans="1:327">
       <x:c r="B51" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C51" s="3" t="n">
         <x:v>94</x:v>
@@ -49174,13 +49622,22 @@
       <x:c r="LL51" s="3" t="n">
         <x:v>137.1</x:v>
       </x:c>
+      <x:c r="LM51" s="3" t="n">
+        <x:v>140.8</x:v>
+      </x:c>
+      <x:c r="LN51" s="3" t="n">
+        <x:v>123.4</x:v>
+      </x:c>
+      <x:c r="LO51" s="3" t="n">
+        <x:v>135.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="52" spans="1:324">
+    <x:row r="52" spans="1:327">
       <x:c r="A52" s="2" t="s">
-        <x:v>343</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C52" s="3" t="n">
         <x:v>85.6</x:v>
@@ -50059,13 +50516,13 @@
         <x:v>161.6</x:v>
       </x:c>
       <x:c r="KI52" s="3" t="n">
-        <x:v>163.8</x:v>
+        <x:v>163.9</x:v>
       </x:c>
       <x:c r="KJ52" s="3" t="n">
         <x:v>164.5</x:v>
       </x:c>
       <x:c r="KK52" s="3" t="n">
-        <x:v>158.9</x:v>
+        <x:v>158.6</x:v>
       </x:c>
       <x:c r="KL52" s="3" t="n">
         <x:v>159.4</x:v>
@@ -50080,7 +50537,7 @@
         <x:v>161.7</x:v>
       </x:c>
       <x:c r="KP52" s="3" t="n">
-        <x:v>155.4</x:v>
+        <x:v>155.7</x:v>
       </x:c>
       <x:c r="KQ52" s="3" t="n">
         <x:v>159.7</x:v>
@@ -50101,28 +50558,28 @@
         <x:v>143.1</x:v>
       </x:c>
       <x:c r="KW52" s="3" t="n">
-        <x:v>130.6</x:v>
+        <x:v>130.3</x:v>
       </x:c>
       <x:c r="KX52" s="3" t="n">
         <x:v>151.3</x:v>
       </x:c>
       <x:c r="KY52" s="3" t="n">
-        <x:v>147</x:v>
+        <x:v>146.9</x:v>
       </x:c>
       <x:c r="KZ52" s="3" t="n">
-        <x:v>148.1</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="LA52" s="3" t="n">
-        <x:v>150.1</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="LB52" s="3" t="n">
-        <x:v>144.7</x:v>
+        <x:v>145.2</x:v>
       </x:c>
       <x:c r="LC52" s="3" t="n">
-        <x:v>156.3</x:v>
+        <x:v>156.4</x:v>
       </x:c>
       <x:c r="LD52" s="3" t="n">
-        <x:v>152.4</x:v>
+        <x:v>152.3</x:v>
       </x:c>
       <x:c r="LE52" s="3" t="n">
         <x:v>153.1</x:v>
@@ -50134,24 +50591,33 @@
         <x:v>153.1</x:v>
       </x:c>
       <x:c r="LH52" s="3" t="n">
-        <x:v>150.7</x:v>
+        <x:v>150.6</x:v>
       </x:c>
       <x:c r="LI52" s="3" t="n">
-        <x:v>142.7</x:v>
+        <x:v>142.3</x:v>
       </x:c>
       <x:c r="LJ52" s="3" t="n">
         <x:v>143.6</x:v>
       </x:c>
       <x:c r="LK52" s="3" t="n">
-        <x:v>146.4</x:v>
+        <x:v>146.3</x:v>
       </x:c>
       <x:c r="LL52" s="3" t="n">
-        <x:v>150.6</x:v>
+        <x:v>150.5</x:v>
+      </x:c>
+      <x:c r="LM52" s="3" t="n">
+        <x:v>149.5</x:v>
+      </x:c>
+      <x:c r="LN52" s="3" t="n">
+        <x:v>144.8</x:v>
+      </x:c>
+      <x:c r="LO52" s="3" t="n">
+        <x:v>155.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:324">
+    <x:row r="53" spans="1:327">
       <x:c r="B53" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C53" s="3" t="n">
         <x:v>91</x:v>
@@ -51024,16 +51490,16 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="KG53" s="3" t="n">
-        <x:v>169.2</x:v>
+        <x:v>169.5</x:v>
       </x:c>
       <x:c r="KH53" s="3" t="n">
-        <x:v>154.6</x:v>
+        <x:v>154.3</x:v>
       </x:c>
       <x:c r="KI53" s="3" t="n">
-        <x:v>166.4</x:v>
+        <x:v>166.5</x:v>
       </x:c>
       <x:c r="KJ53" s="3" t="n">
-        <x:v>173.4</x:v>
+        <x:v>173.3</x:v>
       </x:c>
       <x:c r="KK53" s="3" t="n">
         <x:v>91.1</x:v>
@@ -51060,16 +51526,16 @@
         <x:v>164.6</x:v>
       </x:c>
       <x:c r="KS53" s="3" t="n">
-        <x:v>162.6</x:v>
+        <x:v>162.9</x:v>
       </x:c>
       <x:c r="KT53" s="3" t="n">
-        <x:v>143</x:v>
+        <x:v>142.7</x:v>
       </x:c>
       <x:c r="KU53" s="3" t="n">
         <x:v>151.3</x:v>
       </x:c>
       <x:c r="KV53" s="3" t="n">
-        <x:v>151.7</x:v>
+        <x:v>151.6</x:v>
       </x:c>
       <x:c r="KW53" s="3" t="n">
         <x:v>74.4</x:v>
@@ -51096,16 +51562,16 @@
         <x:v>155.7</x:v>
       </x:c>
       <x:c r="LE53" s="3" t="n">
-        <x:v>161.5</x:v>
+        <x:v>161.8</x:v>
       </x:c>
       <x:c r="LF53" s="3" t="n">
-        <x:v>142.4</x:v>
+        <x:v>142.1</x:v>
       </x:c>
       <x:c r="LG53" s="3" t="n">
-        <x:v>156</x:v>
+        <x:v>156.1</x:v>
       </x:c>
       <x:c r="LH53" s="3" t="n">
-        <x:v>160</x:v>
+        <x:v>159.9</x:v>
       </x:c>
       <x:c r="LI53" s="3" t="n">
         <x:v>81.1</x:v>
@@ -51119,10 +51585,19 @@
       <x:c r="LL53" s="3" t="n">
         <x:v>165.5</x:v>
       </x:c>
+      <x:c r="LM53" s="3" t="n">
+        <x:v>163.6</x:v>
+      </x:c>
+      <x:c r="LN53" s="3" t="n">
+        <x:v>139.5</x:v>
+      </x:c>
+      <x:c r="LO53" s="3" t="n">
+        <x:v>166</x:v>
+      </x:c>
     </x:row>
-    <x:row r="54" spans="1:324">
+    <x:row r="54" spans="1:327">
       <x:c r="B54" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C54" s="3" t="n">
         <x:v>90</x:v>
@@ -52090,13 +52565,22 @@
       <x:c r="LL54" s="3" t="n">
         <x:v>158.4</x:v>
       </x:c>
+      <x:c r="LM54" s="3" t="n">
+        <x:v>167.2</x:v>
+      </x:c>
+      <x:c r="LN54" s="3" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="LO54" s="3" t="n">
+        <x:v>158.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="55" spans="1:324">
+    <x:row r="55" spans="1:327">
       <x:c r="A55" s="2" t="s">
-        <x:v>344</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C55" s="3" t="n">
         <x:v>104.9</x:v>
@@ -52963,46 +53447,46 @@
         <x:v>215.7</x:v>
       </x:c>
       <x:c r="KE55" s="3" t="n">
-        <x:v>223.5</x:v>
+        <x:v>223.8</x:v>
       </x:c>
       <x:c r="KF55" s="3" t="n">
-        <x:v>229.1</x:v>
+        <x:v>228.7</x:v>
       </x:c>
       <x:c r="KG55" s="3" t="n">
-        <x:v>234.8</x:v>
+        <x:v>234.9</x:v>
       </x:c>
       <x:c r="KH55" s="3" t="n">
-        <x:v>243.4</x:v>
+        <x:v>243.5</x:v>
       </x:c>
       <x:c r="KI55" s="3" t="n">
-        <x:v>250.1</x:v>
+        <x:v>250.2</x:v>
       </x:c>
       <x:c r="KJ55" s="3" t="n">
         <x:v>251.1</x:v>
       </x:c>
       <x:c r="KK55" s="3" t="n">
-        <x:v>266.6</x:v>
+        <x:v>266.7</x:v>
       </x:c>
       <x:c r="KL55" s="3" t="n">
         <x:v>254.6</x:v>
       </x:c>
       <x:c r="KM55" s="3" t="n">
-        <x:v>253.1</x:v>
+        <x:v>253.2</x:v>
       </x:c>
       <x:c r="KN55" s="3" t="n">
-        <x:v>262.5</x:v>
+        <x:v>262.4</x:v>
       </x:c>
       <x:c r="KO55" s="3" t="n">
-        <x:v>279.1</x:v>
+        <x:v>279.2</x:v>
       </x:c>
       <x:c r="KP55" s="3" t="n">
         <x:v>278.8</x:v>
       </x:c>
       <x:c r="KQ55" s="3" t="n">
-        <x:v>288.2</x:v>
+        <x:v>288.4</x:v>
       </x:c>
       <x:c r="KR55" s="3" t="n">
-        <x:v>272.7</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="KS55" s="3" t="n">
         <x:v>214.2</x:v>
@@ -53011,34 +53495,34 @@
         <x:v>183.3</x:v>
       </x:c>
       <x:c r="KU55" s="3" t="n">
-        <x:v>191.9</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="KV55" s="3" t="n">
-        <x:v>197.7</x:v>
+        <x:v>197.8</x:v>
       </x:c>
       <x:c r="KW55" s="3" t="n">
-        <x:v>209.4</x:v>
+        <x:v>209.5</x:v>
       </x:c>
       <x:c r="KX55" s="3" t="n">
         <x:v>224.3</x:v>
       </x:c>
       <x:c r="KY55" s="3" t="n">
-        <x:v>230.1</x:v>
+        <x:v>230.2</x:v>
       </x:c>
       <x:c r="KZ55" s="3" t="n">
-        <x:v>243.6</x:v>
+        <x:v>243.5</x:v>
       </x:c>
       <x:c r="LA55" s="3" t="n">
-        <x:v>244.8</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="LB55" s="3" t="n">
         <x:v>252.8</x:v>
       </x:c>
       <x:c r="LC55" s="3" t="n">
-        <x:v>247.5</x:v>
+        <x:v>247.6</x:v>
       </x:c>
       <x:c r="LD55" s="3" t="n">
-        <x:v>252.8</x:v>
+        <x:v>252.2</x:v>
       </x:c>
       <x:c r="LE55" s="3" t="n">
         <x:v>233.7</x:v>
@@ -53047,16 +53531,16 @@
         <x:v>222.6</x:v>
       </x:c>
       <x:c r="LG55" s="3" t="n">
-        <x:v>221.3</x:v>
+        <x:v>221.4</x:v>
       </x:c>
       <x:c r="LH55" s="3" t="n">
-        <x:v>235.5</x:v>
+        <x:v>235.6</x:v>
       </x:c>
       <x:c r="LI55" s="3" t="n">
-        <x:v>241.8</x:v>
+        <x:v>241.9</x:v>
       </x:c>
       <x:c r="LJ55" s="3" t="n">
-        <x:v>218.1</x:v>
+        <x:v>218.2</x:v>
       </x:c>
       <x:c r="LK55" s="3" t="n">
         <x:v>223.8</x:v>
@@ -53064,10 +53548,19 @@
       <x:c r="LL55" s="3" t="n">
         <x:v>225.2</x:v>
       </x:c>
+      <x:c r="LM55" s="3" t="n">
+        <x:v>228.6</x:v>
+      </x:c>
+      <x:c r="LN55" s="3" t="n">
+        <x:v>220.9</x:v>
+      </x:c>
+      <x:c r="LO55" s="3" t="n">
+        <x:v>225.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="56" spans="1:324">
+    <x:row r="56" spans="1:327">
       <x:c r="B56" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C56" s="3" t="n">
         <x:v>117.6</x:v>
@@ -53940,10 +54433,10 @@
         <x:v>233.3</x:v>
       </x:c>
       <x:c r="KG56" s="3" t="n">
-        <x:v>249.7</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="KH56" s="3" t="n">
-        <x:v>232.8</x:v>
+        <x:v>232.5</x:v>
       </x:c>
       <x:c r="KI56" s="3" t="n">
         <x:v>264.2</x:v>
@@ -53976,10 +54469,10 @@
         <x:v>277.3</x:v>
       </x:c>
       <x:c r="KS56" s="3" t="n">
-        <x:v>228.2</x:v>
+        <x:v>228.5</x:v>
       </x:c>
       <x:c r="KT56" s="3" t="n">
-        <x:v>175.3</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="KU56" s="3" t="n">
         <x:v>202.3</x:v>
@@ -54012,10 +54505,10 @@
         <x:v>256.4</x:v>
       </x:c>
       <x:c r="LE56" s="3" t="n">
-        <x:v>249.7</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="LF56" s="3" t="n">
-        <x:v>212.3</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="LG56" s="3" t="n">
         <x:v>232.7</x:v>
@@ -54035,10 +54528,19 @@
       <x:c r="LL56" s="3" t="n">
         <x:v>242.8</x:v>
       </x:c>
+      <x:c r="LM56" s="3" t="n">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="LN56" s="3" t="n">
+        <x:v>205.9</x:v>
+      </x:c>
+      <x:c r="LO56" s="3" t="n">
+        <x:v>237.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="57" spans="1:324">
+    <x:row r="57" spans="1:327">
       <x:c r="B57" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C57" s="3" t="n">
         <x:v>116.4</x:v>
@@ -55006,13 +55508,22 @@
       <x:c r="LL57" s="3" t="n">
         <x:v>234.4</x:v>
       </x:c>
+      <x:c r="LM57" s="3" t="n">
+        <x:v>251.4</x:v>
+      </x:c>
+      <x:c r="LN57" s="3" t="n">
+        <x:v>209.5</x:v>
+      </x:c>
+      <x:c r="LO57" s="3" t="n">
+        <x:v>229.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="58" spans="1:324">
+    <x:row r="58" spans="1:327">
       <x:c r="A58" s="2" t="s">
-        <x:v>345</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C58" s="3" t="n">
         <x:v>104.1</x:v>
@@ -55894,7 +56405,7 @@
         <x:v>133.3</x:v>
       </x:c>
       <x:c r="KJ58" s="3" t="n">
-        <x:v>132.7</x:v>
+        <x:v>132.8</x:v>
       </x:c>
       <x:c r="KK58" s="3" t="n">
         <x:v>133.9</x:v>
@@ -55915,7 +56426,7 @@
         <x:v>127.1</x:v>
       </x:c>
       <x:c r="KQ58" s="3" t="n">
-        <x:v>130.3</x:v>
+        <x:v>130.2</x:v>
       </x:c>
       <x:c r="KR58" s="3" t="n">
         <x:v>129.8</x:v>
@@ -55945,13 +56456,13 @@
         <x:v>111.3</x:v>
       </x:c>
       <x:c r="LA58" s="3" t="n">
-        <x:v>115.1</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="LB58" s="3" t="n">
-        <x:v>105.9</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="LC58" s="3" t="n">
-        <x:v>114.6</x:v>
+        <x:v>114.5</x:v>
       </x:c>
       <x:c r="LD58" s="3" t="n">
         <x:v>112.5</x:v>
@@ -55969,7 +56480,7 @@
         <x:v>112.3</x:v>
       </x:c>
       <x:c r="LI58" s="3" t="n">
-        <x:v>126.8</x:v>
+        <x:v>126.9</x:v>
       </x:c>
       <x:c r="LJ58" s="3" t="n">
         <x:v>114.2</x:v>
@@ -55980,10 +56491,19 @@
       <x:c r="LL58" s="3" t="n">
         <x:v>118.6</x:v>
       </x:c>
+      <x:c r="LM58" s="3" t="n">
+        <x:v>119.1</x:v>
+      </x:c>
+      <x:c r="LN58" s="3" t="n">
+        <x:v>120.9</x:v>
+      </x:c>
+      <x:c r="LO58" s="3" t="n">
+        <x:v>122.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="59" spans="1:324">
+    <x:row r="59" spans="1:327">
       <x:c r="B59" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C59" s="3" t="n">
         <x:v>111.4</x:v>
@@ -56856,16 +57376,16 @@
         <x:v>135.1</x:v>
       </x:c>
       <x:c r="KG59" s="3" t="n">
-        <x:v>136.2</x:v>
+        <x:v>136.4</x:v>
       </x:c>
       <x:c r="KH59" s="3" t="n">
-        <x:v>128.1</x:v>
+        <x:v>127.8</x:v>
       </x:c>
       <x:c r="KI59" s="3" t="n">
-        <x:v>135.4</x:v>
+        <x:v>135.5</x:v>
       </x:c>
       <x:c r="KJ59" s="3" t="n">
-        <x:v>143.9</x:v>
+        <x:v>143.8</x:v>
       </x:c>
       <x:c r="KK59" s="3" t="n">
         <x:v>76.1</x:v>
@@ -56892,10 +57412,10 @@
         <x:v>133.9</x:v>
       </x:c>
       <x:c r="KS59" s="3" t="n">
-        <x:v>129.2</x:v>
+        <x:v>129.4</x:v>
       </x:c>
       <x:c r="KT59" s="3" t="n">
-        <x:v>101.7</x:v>
+        <x:v>101.5</x:v>
       </x:c>
       <x:c r="KU59" s="3" t="n">
         <x:v>102.6</x:v>
@@ -56928,16 +57448,16 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="LE59" s="3" t="n">
-        <x:v>115.3</x:v>
+        <x:v>115.5</x:v>
       </x:c>
       <x:c r="LF59" s="3" t="n">
-        <x:v>108.2</x:v>
+        <x:v>107.9</x:v>
       </x:c>
       <x:c r="LG59" s="3" t="n">
-        <x:v>117.5</x:v>
+        <x:v>117.6</x:v>
       </x:c>
       <x:c r="LH59" s="3" t="n">
-        <x:v>122</x:v>
+        <x:v>121.9</x:v>
       </x:c>
       <x:c r="LI59" s="3" t="n">
         <x:v>72</x:v>
@@ -56951,10 +57471,19 @@
       <x:c r="LL59" s="3" t="n">
         <x:v>132.9</x:v>
       </x:c>
+      <x:c r="LM59" s="3" t="n">
+        <x:v>130.2</x:v>
+      </x:c>
+      <x:c r="LN59" s="3" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="LO59" s="3" t="n">
+        <x:v>131.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="60" spans="1:324">
+    <x:row r="60" spans="1:327">
       <x:c r="B60" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C60" s="3" t="n">
         <x:v>110.5</x:v>
@@ -57922,13 +58451,22 @@
       <x:c r="LL60" s="3" t="n">
         <x:v>128.6</x:v>
       </x:c>
+      <x:c r="LM60" s="3" t="n">
+        <x:v>132.4</x:v>
+      </x:c>
+      <x:c r="LN60" s="3" t="n">
+        <x:v>116.8</x:v>
+      </x:c>
+      <x:c r="LO60" s="3" t="n">
+        <x:v>127.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="61" spans="1:324">
+    <x:row r="61" spans="1:327">
       <x:c r="A61" s="2" t="s">
-        <x:v>346</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B61" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C61" s="3" t="n">
         <x:v>94.2</x:v>
@@ -58798,7 +59336,7 @@
         <x:v>150.9</x:v>
       </x:c>
       <x:c r="KF61" s="3" t="n">
-        <x:v>150.8</x:v>
+        <x:v>150.7</x:v>
       </x:c>
       <x:c r="KG61" s="3" t="n">
         <x:v>148.6</x:v>
@@ -58810,13 +59348,13 @@
         <x:v>157.4</x:v>
       </x:c>
       <x:c r="KJ61" s="3" t="n">
-        <x:v>151.9</x:v>
+        <x:v>151.8</x:v>
       </x:c>
       <x:c r="KK61" s="3" t="n">
         <x:v>153.9</x:v>
       </x:c>
       <x:c r="KL61" s="3" t="n">
-        <x:v>154.3</x:v>
+        <x:v>154.4</x:v>
       </x:c>
       <x:c r="KM61" s="3" t="n">
         <x:v>155</x:v>
@@ -58834,7 +59372,7 @@
         <x:v>153.8</x:v>
       </x:c>
       <x:c r="KR61" s="3" t="n">
-        <x:v>151.8</x:v>
+        <x:v>151.7</x:v>
       </x:c>
       <x:c r="KS61" s="3" t="n">
         <x:v>140.1</x:v>
@@ -58861,7 +59399,7 @@
         <x:v>144.8</x:v>
       </x:c>
       <x:c r="LA61" s="3" t="n">
-        <x:v>145.8</x:v>
+        <x:v>145.9</x:v>
       </x:c>
       <x:c r="LB61" s="3" t="n">
         <x:v>138</x:v>
@@ -58894,12 +59432,21 @@
         <x:v>142.6</x:v>
       </x:c>
       <x:c r="LL61" s="3" t="n">
-        <x:v>148.2</x:v>
+        <x:v>148.1</x:v>
+      </x:c>
+      <x:c r="LM61" s="3" t="n">
+        <x:v>144.3</x:v>
+      </x:c>
+      <x:c r="LN61" s="3" t="n">
+        <x:v>144.2</x:v>
+      </x:c>
+      <x:c r="LO61" s="3" t="n">
+        <x:v>146.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:324">
+    <x:row r="62" spans="1:327">
       <x:c r="B62" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C62" s="3" t="n">
         <x:v>100.9</x:v>
@@ -59772,13 +60319,13 @@
         <x:v>148.6</x:v>
       </x:c>
       <x:c r="KG62" s="3" t="n">
-        <x:v>156.4</x:v>
+        <x:v>156.7</x:v>
       </x:c>
       <x:c r="KH62" s="3" t="n">
-        <x:v>149.4</x:v>
+        <x:v>149.2</x:v>
       </x:c>
       <x:c r="KI62" s="3" t="n">
-        <x:v>165.3</x:v>
+        <x:v>165.4</x:v>
       </x:c>
       <x:c r="KJ62" s="3" t="n">
         <x:v>158.1</x:v>
@@ -59808,16 +60355,16 @@
         <x:v>149.1</x:v>
       </x:c>
       <x:c r="KS62" s="3" t="n">
-        <x:v>147.6</x:v>
+        <x:v>147.8</x:v>
       </x:c>
       <x:c r="KT62" s="3" t="n">
-        <x:v>139.6</x:v>
+        <x:v>139.4</x:v>
       </x:c>
       <x:c r="KU62" s="3" t="n">
-        <x:v>147</x:v>
+        <x:v>147.1</x:v>
       </x:c>
       <x:c r="KV62" s="3" t="n">
-        <x:v>140.7</x:v>
+        <x:v>140.6</x:v>
       </x:c>
       <x:c r="KW62" s="3" t="n">
         <x:v>101.7</x:v>
@@ -59844,16 +60391,16 @@
         <x:v>145.8</x:v>
       </x:c>
       <x:c r="LE62" s="3" t="n">
-        <x:v>159</x:v>
+        <x:v>159.2</x:v>
       </x:c>
       <x:c r="LF62" s="3" t="n">
-        <x:v>141.1</x:v>
+        <x:v>140.9</x:v>
       </x:c>
       <x:c r="LG62" s="3" t="n">
-        <x:v>152.7</x:v>
+        <x:v>152.8</x:v>
       </x:c>
       <x:c r="LH62" s="3" t="n">
-        <x:v>147.5</x:v>
+        <x:v>147.4</x:v>
       </x:c>
       <x:c r="LI62" s="3" t="n">
         <x:v>104.1</x:v>
@@ -59867,10 +60414,19 @@
       <x:c r="LL62" s="3" t="n">
         <x:v>159.8</x:v>
       </x:c>
+      <x:c r="LM62" s="3" t="n">
+        <x:v>154.1</x:v>
+      </x:c>
+      <x:c r="LN62" s="3" t="n">
+        <x:v>135.9</x:v>
+      </x:c>
+      <x:c r="LO62" s="3" t="n">
+        <x:v>154.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="63" spans="1:324">
+    <x:row r="63" spans="1:327">
       <x:c r="B63" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C63" s="3" t="n">
         <x:v>99.9</x:v>
@@ -60838,13 +61394,22 @@
       <x:c r="LL63" s="3" t="n">
         <x:v>154</x:v>
       </x:c>
+      <x:c r="LM63" s="3" t="n">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="LN63" s="3" t="n">
+        <x:v>135.6</x:v>
+      </x:c>
+      <x:c r="LO63" s="3" t="n">
+        <x:v>148.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="64" spans="1:324">
+    <x:row r="64" spans="1:327">
       <x:c r="A64" s="2" t="s">
-        <x:v>347</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B64" s="2" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C64" s="3" t="n">
         <x:v>101.2</x:v>
@@ -61753,13 +62318,13 @@
         <x:v>55.7</x:v>
       </x:c>
       <x:c r="KS64" s="3" t="n">
-        <x:v>47.2</x:v>
+        <x:v>47.1</x:v>
       </x:c>
       <x:c r="KT64" s="3" t="n">
         <x:v>33.6</x:v>
       </x:c>
       <x:c r="KU64" s="3" t="n">
-        <x:v>43.4</x:v>
+        <x:v>43.5</x:v>
       </x:c>
       <x:c r="KV64" s="3" t="n">
         <x:v>51.5</x:v>
@@ -61777,13 +62342,13 @@
         <x:v>61.2</x:v>
       </x:c>
       <x:c r="LA64" s="3" t="n">
-        <x:v>57.7</x:v>
+        <x:v>57.6</x:v>
       </x:c>
       <x:c r="LB64" s="3" t="n">
-        <x:v>63.6</x:v>
+        <x:v>63.5</x:v>
       </x:c>
       <x:c r="LC64" s="3" t="n">
-        <x:v>61</x:v>
+        <x:v>61.1</x:v>
       </x:c>
       <x:c r="LD64" s="3" t="n">
         <x:v>60.5</x:v>
@@ -61812,10 +62377,19 @@
       <x:c r="LL64" s="3" t="n">
         <x:v>64.5</x:v>
       </x:c>
+      <x:c r="LM64" s="3" t="n">
+        <x:v>64.7</x:v>
+      </x:c>
+      <x:c r="LN64" s="3" t="n">
+        <x:v>60.4</x:v>
+      </x:c>
+      <x:c r="LO64" s="3" t="n">
+        <x:v>57.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="65" spans="1:324">
+    <x:row r="65" spans="1:327">
       <x:c r="B65" s="2" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C65" s="3" t="n">
         <x:v>105.9</x:v>
@@ -62688,10 +63262,10 @@
         <x:v>56.7</x:v>
       </x:c>
       <x:c r="KG65" s="3" t="n">
-        <x:v>54.1</x:v>
+        <x:v>54.2</x:v>
       </x:c>
       <x:c r="KH65" s="3" t="n">
-        <x:v>52.3</x:v>
+        <x:v>52.2</x:v>
       </x:c>
       <x:c r="KI65" s="3" t="n">
         <x:v>51.5</x:v>
@@ -62724,16 +63298,16 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="KS65" s="3" t="n">
-        <x:v>48.8</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="KT65" s="3" t="n">
-        <x:v>32.2</x:v>
+        <x:v>32.1</x:v>
       </x:c>
       <x:c r="KU65" s="3" t="n">
         <x:v>41.1</x:v>
       </x:c>
       <x:c r="KV65" s="3" t="n">
-        <x:v>53.4</x:v>
+        <x:v>53.3</x:v>
       </x:c>
       <x:c r="KW65" s="3" t="n">
         <x:v>28.8</x:v>
@@ -62760,16 +63334,16 @@
         <x:v>65.4</x:v>
       </x:c>
       <x:c r="LE65" s="3" t="n">
-        <x:v>65.6</x:v>
+        <x:v>65.7</x:v>
       </x:c>
       <x:c r="LF65" s="3" t="n">
-        <x:v>59.3</x:v>
+        <x:v>59.2</x:v>
       </x:c>
       <x:c r="LG65" s="3" t="n">
         <x:v>62.3</x:v>
       </x:c>
       <x:c r="LH65" s="3" t="n">
-        <x:v>69.3</x:v>
+        <x:v>69.2</x:v>
       </x:c>
       <x:c r="LI65" s="3" t="n">
         <x:v>33.1</x:v>
@@ -62783,10 +63357,19 @@
       <x:c r="LL65" s="3" t="n">
         <x:v>69.4</x:v>
       </x:c>
+      <x:c r="LM65" s="3" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="LN65" s="3" t="n">
+        <x:v>59.2</x:v>
+      </x:c>
+      <x:c r="LO65" s="3" t="n">
+        <x:v>65.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="66" spans="1:324">
+    <x:row r="66" spans="1:327">
       <x:c r="B66" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C66" s="3" t="n">
         <x:v>104.9</x:v>
@@ -63754,278 +64337,297 @@
       <x:c r="LL66" s="3" t="n">
         <x:v>66.7</x:v>
       </x:c>
+      <x:c r="LM66" s="3" t="n">
+        <x:v>75.5</x:v>
+      </x:c>
+      <x:c r="LN66" s="3" t="n">
+        <x:v>57.8</x:v>
+      </x:c>
+      <x:c r="LO66" s="3" t="n">
+        <x:v>63.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="68" spans="1:324">
+    <x:row r="68" spans="1:327">
       <x:c r="A68" s="5" t="s">
-        <x:v>348</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:324">
+    <x:row r="69" spans="1:327">
       <x:c r="A69" s="5" t="s">
-        <x:v>349</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:324">
-      <x:c r="A71" s="0" t="s">
-        <x:v>350</x:v>
+    <x:row r="70" spans="1:327">
+      <x:c r="A70" s="5" t="s">
+        <x:v>353</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:324">
+    <x:row r="72" spans="1:327">
       <x:c r="A72" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:324">
+    <x:row r="73" spans="1:327">
       <x:c r="A73" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:324">
+    <x:row r="74" spans="1:327">
       <x:c r="A74" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:324">
+    <x:row r="75" spans="1:327">
       <x:c r="A75" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:324">
+    <x:row r="76" spans="1:327">
       <x:c r="A76" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:324">
+    <x:row r="77" spans="1:327">
       <x:c r="A77" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:324">
-      <x:c r="A79" s="0" t="s">
+    <x:row r="78" spans="1:327">
+      <x:c r="A78" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:327">
+      <x:c r="A80" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:327">
+      <x:c r="A81" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:327">
+      <x:c r="A83" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:327">
+      <x:c r="A84" s="0" t="s">
         <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:324">
-      <x:c r="A80" s="0" t="s">
-        <x:v>356</x:v>
+    <x:row r="85" spans="1:327">
+      <x:c r="A85" s="0" t="s">
+        <x:v>362</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:324">
-      <x:c r="A82" s="0" t="s">
+    <x:row r="86" spans="1:327">
+      <x:c r="A86" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:327">
+      <x:c r="A87" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:327">
+      <x:c r="A91" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:327">
+      <x:c r="A93" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:327">
+      <x:c r="A94" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:327">
+      <x:c r="A95" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:327">
+      <x:c r="A96" s="0" t="s">
         <x:v>357</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:324">
-      <x:c r="A83" s="0" t="s">
-        <x:v>351</x:v>
+    <x:row r="97" spans="1:327">
+      <x:c r="A97" s="0" t="s">
+        <x:v>367</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:324">
-      <x:c r="A84" s="0" t="s">
+    <x:row r="98" spans="1:327">
+      <x:c r="A98" s="0" t="s">
         <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:324">
-      <x:c r="A85" s="0" t="s">
-        <x:v>359</x:v>
+    <x:row r="99" spans="1:327">
+      <x:c r="A99" s="0" t="s">
+        <x:v>367</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:324">
-      <x:c r="A86" s="0" t="s">
-        <x:v>360</x:v>
+    <x:row r="100" spans="1:327">
+      <x:c r="A100" s="0" t="s">
+        <x:v>368</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:324">
-      <x:c r="A90" s="0" t="s">
-        <x:v>361</x:v>
+    <x:row r="101" spans="1:327">
+      <x:c r="A101" s="0" t="s">
+        <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:324">
-      <x:c r="A92" s="0" t="s">
-        <x:v>362</x:v>
+    <x:row r="102" spans="1:327">
+      <x:c r="A102" s="0" t="s">
+        <x:v>369</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:324">
-      <x:c r="A93" s="0" t="s">
-        <x:v>351</x:v>
+    <x:row r="103" spans="1:327">
+      <x:c r="A103" s="0" t="s">
+        <x:v>357</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:324">
-      <x:c r="A94" s="0" t="s">
-        <x:v>363</x:v>
+    <x:row r="104" spans="1:327">
+      <x:c r="A104" s="0" t="s">
+        <x:v>369</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:324">
-      <x:c r="A95" s="0" t="s">
-        <x:v>353</x:v>
+    <x:row r="105" spans="1:327">
+      <x:c r="A105" s="0" t="s">
+        <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:324">
-      <x:c r="A96" s="0" t="s">
-        <x:v>363</x:v>
+    <x:row r="106" spans="1:327">
+      <x:c r="A106" s="0" t="s">
+        <x:v>369</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:324">
-      <x:c r="A97" s="0" t="s">
-        <x:v>354</x:v>
+    <x:row r="108" spans="1:327">
+      <x:c r="A108" s="0" t="s">
+        <x:v>370</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:324">
-      <x:c r="A98" s="0" t="s">
-        <x:v>363</x:v>
+    <x:row r="109" spans="1:327">
+      <x:c r="A109" s="0" t="s">
+        <x:v>327</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:324">
-      <x:c r="A99" s="0" t="s">
-        <x:v>364</x:v>
+    <x:row r="110" spans="1:327">
+      <x:c r="A110" s="0" t="s">
+        <x:v>371</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:324">
-      <x:c r="A100" s="0" t="s">
-        <x:v>351</x:v>
+    <x:row r="111" spans="1:327">
+      <x:c r="A111" s="0" t="s">
+        <x:v>328</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:324">
-      <x:c r="A101" s="0" t="s">
-        <x:v>365</x:v>
+    <x:row r="112" spans="1:327">
+      <x:c r="A112" s="0" t="s">
+        <x:v>371</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:324">
-      <x:c r="A102" s="0" t="s">
-        <x:v>353</x:v>
+    <x:row r="113" spans="1:327">
+      <x:c r="A113" s="0" t="s">
+        <x:v>329</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:324">
-      <x:c r="A103" s="0" t="s">
-        <x:v>365</x:v>
+    <x:row r="114" spans="1:327">
+      <x:c r="A114" s="0" t="s">
+        <x:v>371</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:324">
-      <x:c r="A104" s="0" t="s">
-        <x:v>354</x:v>
+    <x:row r="116" spans="1:327">
+      <x:c r="A116" s="0" t="s">
+        <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:324">
-      <x:c r="A105" s="0" t="s">
-        <x:v>365</x:v>
+    <x:row r="117" spans="1:327">
+      <x:c r="A117" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:324">
-      <x:c r="A107" s="0" t="s">
-        <x:v>366</x:v>
+    <x:row r="118" spans="1:327">
+      <x:c r="A118" s="0" t="s">
+        <x:v>357</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:324">
-      <x:c r="A108" s="0" t="s">
-        <x:v>324</x:v>
+    <x:row r="119" spans="1:327">
+      <x:c r="A119" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:324">
-      <x:c r="A109" s="0" t="s">
-        <x:v>367</x:v>
+    <x:row r="120" spans="1:327">
+      <x:c r="A120" s="0" t="s">
+        <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:324">
-      <x:c r="A110" s="0" t="s">
-        <x:v>325</x:v>
+    <x:row r="121" spans="1:327">
+      <x:c r="A121" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:324">
-      <x:c r="A111" s="0" t="s">
-        <x:v>367</x:v>
+    <x:row r="124" spans="1:327">
+      <x:c r="A124" s="0" t="s">
+        <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:324">
-      <x:c r="A112" s="0" t="s">
-        <x:v>326</x:v>
+    <x:row r="125" spans="1:327">
+      <x:c r="A125" s="0" t="s">
+        <x:v>373</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:324">
-      <x:c r="A113" s="0" t="s">
-        <x:v>367</x:v>
+    <x:row r="126" spans="1:327">
+      <x:c r="A126" s="0" t="s">
+        <x:v>357</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:324">
-      <x:c r="A115" s="0" t="s">
-        <x:v>351</x:v>
+    <x:row r="127" spans="1:327">
+      <x:c r="A127" s="0" t="s">
+        <x:v>373</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:324">
-      <x:c r="A116" s="0" t="s">
-        <x:v>368</x:v>
+    <x:row r="129" spans="1:327">
+      <x:c r="A129" s="0" t="s">
+        <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:324">
-      <x:c r="A117" s="0" t="s">
-        <x:v>353</x:v>
+    <x:row r="130" spans="1:327">
+      <x:c r="A130" s="0" t="s">
+        <x:v>374</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:324">
-      <x:c r="A118" s="0" t="s">
-        <x:v>368</x:v>
+    <x:row r="133" spans="1:327">
+      <x:c r="A133" s="0" t="s">
+        <x:v>375</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:324">
-      <x:c r="A119" s="0" t="s">
-        <x:v>354</x:v>
+    <x:row r="134" spans="1:327">
+      <x:c r="A134" s="0" t="s">
+        <x:v>376</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:324">
-      <x:c r="A120" s="0" t="s">
-        <x:v>368</x:v>
+    <x:row r="136" spans="1:327">
+      <x:c r="A136" s="0" t="s">
+        <x:v>377</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:324">
-      <x:c r="A123" s="0" t="s">
-        <x:v>351</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:324">
-      <x:c r="A124" s="0" t="s">
-        <x:v>369</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="125" spans="1:324">
-      <x:c r="A125" s="0" t="s">
-        <x:v>353</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="126" spans="1:324">
-      <x:c r="A126" s="0" t="s">
-        <x:v>369</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="128" spans="1:324">
-      <x:c r="A128" s="0" t="s">
-        <x:v>351</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="129" spans="1:324">
-      <x:c r="A129" s="0" t="s">
-        <x:v>370</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="132" spans="1:324">
-      <x:c r="A132" s="0" t="s">
-        <x:v>371</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:324">
-      <x:c r="A133" s="0" t="s">
-        <x:v>372</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="135" spans="1:324">
-      <x:c r="A135" s="0" t="s">
-        <x:v>373</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:324">
-      <x:c r="A136" s="0" t="s">
-        <x:v>374</x:v>
+    <x:row r="137" spans="1:327">
+      <x:c r="A137" s="0" t="s">
+        <x:v>378</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A68:LO68"/>
+    <x:mergeCell ref="A69:LO69"/>
+    <x:mergeCell ref="A70:LO70"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
